--- a/Chem 1A.xlsx
+++ b/Chem 1A.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1789,11 +1789,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2105,20 +2107,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +2131,7 @@
       <c r="C1" s="2">
         <v>1.3310185185185185E-3</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="1" t="s">
         <v>504</v>
       </c>
@@ -2139,7 +2142,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2149,12 +2152,12 @@
       <c r="C2" s="2">
         <v>1.8518518518518517E-3</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="4"/>
       <c r="G2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2164,14 +2167,14 @@
       <c r="C3" s="2">
         <v>4.9537037037037041E-3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>430</v>
       </c>
       <c r="G3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2181,7 +2184,7 @@
       <c r="C4" s="2">
         <v>8.1481481481481474E-3</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4"/>
       <c r="F4" s="1" t="s">
         <v>532</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2199,7 +2202,7 @@
       <c r="C5" s="2">
         <v>8.6805555555555559E-3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>431</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2209,7 +2212,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2219,12 +2222,12 @@
       <c r="C6" s="2">
         <v>1.4641203703703703E-2</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="4"/>
       <c r="G6" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2234,12 +2237,12 @@
       <c r="C7" s="2">
         <v>1.5532407407407406E-2</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="4"/>
       <c r="G7" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2249,12 +2252,12 @@
       <c r="C8" s="2">
         <v>1.744212962962963E-2</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="4"/>
       <c r="G8" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2264,12 +2267,12 @@
       <c r="C9" s="2">
         <v>1.8124999999999999E-2</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="4"/>
       <c r="G9" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2279,7 +2282,7 @@
       <c r="C10" s="2">
         <v>1.8888888888888889E-2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>432</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2292,7 +2295,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2302,12 +2305,12 @@
       <c r="C11" s="2">
         <v>1.8958333333333334E-2</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="4"/>
       <c r="G11" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2317,12 +2320,12 @@
       <c r="C12" s="2">
         <v>2.0266203703703703E-2</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="4"/>
       <c r="G12" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2332,12 +2335,12 @@
       <c r="C13" s="2">
         <v>2.255787037037037E-2</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="4"/>
       <c r="G13" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2347,7 +2350,7 @@
       <c r="C14" s="2">
         <v>2.3854166666666666E-2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>433</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2360,7 +2363,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2370,7 +2373,7 @@
       <c r="C15" s="2">
         <v>2.5833333333333333E-2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>434</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2380,7 +2383,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2390,12 +2393,12 @@
       <c r="C16" s="2">
         <v>2.6493055555555558E-2</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="4"/>
       <c r="G16" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2405,12 +2408,12 @@
       <c r="C17" s="2">
         <v>2.6678240740740738E-2</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="4"/>
       <c r="G17" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2420,12 +2423,12 @@
       <c r="C18" s="2">
         <v>2.704861111111111E-2</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="4"/>
       <c r="G18" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2435,12 +2438,12 @@
       <c r="C19" s="2">
         <v>2.8101851851851854E-2</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="4"/>
       <c r="G19" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2450,7 +2453,7 @@
       <c r="C20" s="2">
         <v>2.9513888888888892E-2</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>435</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2463,7 +2466,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2473,12 +2476,12 @@
       <c r="C21" s="2">
         <v>3.0185185185185186E-2</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="4"/>
       <c r="G21" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2488,7 +2491,7 @@
       <c r="C22" s="2">
         <v>3.1620370370370368E-2</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>436</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2501,7 +2504,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2511,12 +2514,12 @@
       <c r="C23" s="2">
         <v>3.243055555555556E-2</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="4"/>
       <c r="G23" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2526,12 +2529,12 @@
       <c r="C24" s="2">
         <v>3.363425925925926E-2</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="4"/>
       <c r="G24" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2541,7 +2544,7 @@
       <c r="C25" s="2">
         <v>3.5300925925925923E-2</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>437</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2554,7 +2557,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2564,12 +2567,12 @@
       <c r="C26" s="2">
         <v>3.5833333333333335E-2</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="4"/>
       <c r="G26" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2579,7 +2582,7 @@
       <c r="C27" s="2">
         <v>3.6527777777777777E-2</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>434</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2592,7 +2595,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2602,12 +2605,12 @@
       <c r="C28" s="2">
         <v>3.8819444444444441E-2</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="4"/>
       <c r="G28" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2617,12 +2620,12 @@
       <c r="C29" s="2">
         <v>7.407407407407407E-4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="4"/>
       <c r="G29" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2632,7 +2635,7 @@
       <c r="C30" s="2">
         <v>3.9351851851851857E-3</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>438</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2645,7 +2648,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2655,7 +2658,7 @@
       <c r="C31" s="2">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>434</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2668,7 +2671,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2678,12 +2681,12 @@
       <c r="C32" s="2">
         <v>1.3807870370370371E-2</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="4"/>
       <c r="G32" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2693,12 +2696,12 @@
       <c r="C33" s="2">
         <v>1.4432870370370372E-2</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="4"/>
       <c r="G33" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2708,12 +2711,12 @@
       <c r="C34" s="2">
         <v>1.4745370370370372E-2</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="4"/>
       <c r="G34" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2723,7 +2726,7 @@
       <c r="C35" s="2">
         <v>1.6261574074074074E-2</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>439</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -2736,7 +2739,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2746,12 +2749,12 @@
       <c r="C36" s="2">
         <v>1.8831018518518518E-2</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="4"/>
       <c r="G36" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2761,7 +2764,7 @@
       <c r="C37" s="2">
         <v>1.9988425925925927E-2</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>440</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -2774,7 +2777,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2784,12 +2787,12 @@
       <c r="C38" s="2">
         <v>2.0381944444444446E-2</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="4"/>
       <c r="G38" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2799,12 +2802,12 @@
       <c r="C39" s="2">
         <v>3.8564814814814816E-2</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="4"/>
       <c r="G39" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2814,7 +2817,7 @@
       <c r="C40" s="2">
         <v>4.0972222222222222E-2</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>441</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -2827,7 +2830,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2837,12 +2840,12 @@
       <c r="C41" s="2">
         <v>4.3217592592592592E-2</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="4"/>
       <c r="G41" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2852,12 +2855,12 @@
       <c r="C42" s="2">
         <v>2.4305555555555552E-4</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="4"/>
       <c r="G42" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2867,12 +2870,12 @@
       <c r="C43" s="2">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="4"/>
       <c r="G43" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2882,12 +2885,12 @@
       <c r="C44" s="2">
         <v>2.2800925925925927E-3</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="4"/>
       <c r="G44" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2897,12 +2900,12 @@
       <c r="C45" s="2">
         <v>3.5763888888888894E-3</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="4"/>
       <c r="G45" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2912,7 +2915,7 @@
       <c r="C46" s="2">
         <v>4.2939814814814811E-3</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="4">
         <v>290</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2925,7 +2928,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2935,7 +2938,7 @@
       <c r="C47" s="2">
         <v>5.1504629629629635E-3</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>442</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2948,7 +2951,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2958,12 +2961,12 @@
       <c r="C48" s="2">
         <v>7.1296296296296307E-3</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="4"/>
       <c r="G48" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2973,12 +2976,12 @@
       <c r="C49" s="2">
         <v>7.905092592592592E-3</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="4"/>
       <c r="G49" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2988,7 +2991,7 @@
       <c r="C50" s="2">
         <v>1.0092592592592592E-2</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="4" t="s">
         <v>424</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3001,7 +3004,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3011,12 +3014,12 @@
       <c r="C51" s="2">
         <v>1.0717592592592593E-2</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="4"/>
       <c r="G51" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3026,7 +3029,7 @@
       <c r="C52" s="2">
         <v>1.2407407407407409E-2</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="4">
         <v>293</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3039,7 +3042,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3049,12 +3052,12 @@
       <c r="C53" s="2">
         <v>1.4571759259259258E-2</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="4"/>
       <c r="G53" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3064,7 +3067,7 @@
       <c r="C54" s="2">
         <v>1.6342592592592593E-2</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="4" t="s">
         <v>443</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -3077,7 +3080,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -3087,7 +3090,7 @@
       <c r="C55" s="2">
         <v>1.7511574074074072E-2</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="4" t="s">
         <v>444</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -3100,7 +3103,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3110,12 +3113,12 @@
       <c r="C56" s="2">
         <v>1.9351851851851853E-2</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="4"/>
       <c r="G56" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3125,7 +3128,7 @@
       <c r="C57" s="2">
         <v>2.1886574074074072E-2</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="4" t="s">
         <v>445</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -3138,7 +3141,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -3148,12 +3151,12 @@
       <c r="C58" s="2">
         <v>2.3831018518518519E-2</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="4"/>
       <c r="G58" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -3163,12 +3166,12 @@
       <c r="C59" s="2">
         <v>2.4548611111111115E-2</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="4"/>
       <c r="G59" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -3178,12 +3181,12 @@
       <c r="C60" s="2">
         <v>2.4641203703703703E-2</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="4"/>
       <c r="G60" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -3193,7 +3196,7 @@
       <c r="C61" s="2">
         <v>2.6620370370370374E-2</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="4" t="s">
         <v>446</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -3206,7 +3209,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -3216,12 +3219,12 @@
       <c r="C62" s="2">
         <v>2.9675925925925925E-2</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="4"/>
       <c r="G62" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -3231,12 +3234,12 @@
       <c r="C63" s="2">
         <v>2.9837962962962965E-2</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="4"/>
       <c r="G63" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -3246,12 +3249,12 @@
       <c r="C64" s="2">
         <v>3.6446759259259262E-2</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="4"/>
       <c r="G64" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -3261,12 +3264,12 @@
       <c r="C65" s="2">
         <v>3.7199074074074072E-2</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="4"/>
       <c r="G65" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -3276,12 +3279,12 @@
       <c r="C66" s="2">
         <v>3.8379629629629632E-2</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="4"/>
       <c r="G66" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -3291,12 +3294,12 @@
       <c r="C67" s="2">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="4"/>
       <c r="G67" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3306,12 +3309,12 @@
       <c r="C68" s="2">
         <v>9.9537037037037042E-4</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="4"/>
       <c r="G68" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -3321,12 +3324,12 @@
       <c r="C69" s="2">
         <v>2.3379629629629631E-3</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="4"/>
       <c r="G69" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -3336,7 +3339,7 @@
       <c r="C70" s="2">
         <v>5.1504629629629635E-3</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="4">
         <v>312</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -3349,7 +3352,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -3359,12 +3362,12 @@
       <c r="C71" s="2">
         <v>6.2268518518518515E-3</v>
       </c>
-      <c r="D71" s="1"/>
+      <c r="D71" s="4"/>
       <c r="G71" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -3374,7 +3377,7 @@
       <c r="C72" s="2">
         <v>7.2685185185185188E-3</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="4" t="s">
         <v>447</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -3387,7 +3390,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -3397,7 +3400,7 @@
       <c r="C73" s="2">
         <v>1.3125E-2</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="4">
         <v>313</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -3410,7 +3413,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -3420,7 +3423,7 @@
       <c r="C74" s="2">
         <v>1.5405092592592593E-2</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="4" t="s">
         <v>448</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -3433,7 +3436,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -3443,12 +3446,12 @@
       <c r="C75" s="2">
         <v>1.8159722222222219E-2</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="4"/>
       <c r="G75" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -3458,7 +3461,7 @@
       <c r="C76" s="2">
         <v>1.982638888888889E-2</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="4" t="s">
         <v>449</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -3471,7 +3474,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -3481,12 +3484,12 @@
       <c r="C77" s="2">
         <v>2.2152777777777775E-2</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="4"/>
       <c r="G77" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -3496,12 +3499,12 @@
       <c r="C78" s="2">
         <v>2.2280092592592591E-2</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="4"/>
       <c r="G78" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -3511,12 +3514,12 @@
       <c r="C79" s="2">
         <v>2.3356481481481482E-2</v>
       </c>
-      <c r="D79" s="1"/>
+      <c r="D79" s="4"/>
       <c r="G79" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -3526,7 +3529,7 @@
       <c r="C80" s="2">
         <v>2.5659722222222223E-2</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="4" t="s">
         <v>449</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -3539,7 +3542,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -3549,12 +3552,12 @@
       <c r="C81" s="2">
         <v>2.6921296296296294E-2</v>
       </c>
-      <c r="D81" s="1"/>
+      <c r="D81" s="4"/>
       <c r="G81" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -3564,12 +3567,12 @@
       <c r="C82" s="2">
         <v>2.7060185185185187E-2</v>
       </c>
-      <c r="D82" s="1"/>
+      <c r="D82" s="4"/>
       <c r="G82" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -3579,12 +3582,12 @@
       <c r="C83" s="2">
         <v>2.7129629629629632E-2</v>
       </c>
-      <c r="D83" s="1"/>
+      <c r="D83" s="4"/>
       <c r="G83" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -3594,12 +3597,12 @@
       <c r="C84" s="2">
         <v>2.7754629629629629E-2</v>
       </c>
-      <c r="D84" s="1"/>
+      <c r="D84" s="4"/>
       <c r="G84" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -3609,12 +3612,12 @@
       <c r="C85" s="2">
         <v>2.8703703703703703E-2</v>
       </c>
-      <c r="D85" s="1"/>
+      <c r="D85" s="4"/>
       <c r="G85" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -3624,12 +3627,12 @@
       <c r="C86" s="2">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="4"/>
       <c r="G86" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -3639,12 +3642,12 @@
       <c r="C87" s="2">
         <v>3.1527777777777773E-2</v>
       </c>
-      <c r="D87" s="1"/>
+      <c r="D87" s="4"/>
       <c r="G87" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -3654,7 +3657,7 @@
       <c r="C88" s="2">
         <v>3.2395833333333332E-2</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="4" t="s">
         <v>450</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -3667,7 +3670,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -3677,12 +3680,12 @@
       <c r="C89" s="2">
         <v>3.2777777777777781E-2</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D89" s="4"/>
       <c r="G89" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -3692,12 +3695,12 @@
       <c r="C90" s="2">
         <v>3.3032407407407406E-2</v>
       </c>
-      <c r="D90" s="1"/>
+      <c r="D90" s="4"/>
       <c r="G90" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -3707,12 +3710,12 @@
       <c r="C91" s="2">
         <v>3.3159722222222222E-2</v>
       </c>
-      <c r="D91" s="1"/>
+      <c r="D91" s="4"/>
       <c r="G91" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -3722,12 +3725,12 @@
       <c r="C92" s="2">
         <v>3.4803240740740739E-2</v>
       </c>
-      <c r="D92" s="1"/>
+      <c r="D92" s="4"/>
       <c r="G92" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -3737,12 +3740,12 @@
       <c r="C93" s="2">
         <v>3.7164351851851851E-2</v>
       </c>
-      <c r="D93" s="1"/>
+      <c r="D93" s="4"/>
       <c r="G93" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -3752,12 +3755,12 @@
       <c r="C94" s="2">
         <v>9.4907407407407408E-4</v>
       </c>
-      <c r="D94" s="1"/>
+      <c r="D94" s="4"/>
       <c r="G94" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -3767,12 +3770,12 @@
       <c r="C95" s="2">
         <v>2.685185185185185E-3</v>
       </c>
-      <c r="D95" s="1"/>
+      <c r="D95" s="4"/>
       <c r="G95" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -3782,12 +3785,12 @@
       <c r="C96" s="2">
         <v>3.6921296296296298E-3</v>
       </c>
-      <c r="D96" s="1"/>
+      <c r="D96" s="4"/>
       <c r="G96" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -3797,7 +3800,7 @@
       <c r="C97" s="2">
         <v>6.3773148148148148E-3</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="4">
         <v>306</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -3810,7 +3813,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -3820,12 +3823,12 @@
       <c r="C98" s="2">
         <v>9.3981481481481485E-3</v>
       </c>
-      <c r="D98" s="1"/>
+      <c r="D98" s="4"/>
       <c r="G98" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -3835,12 +3838,12 @@
       <c r="C99" s="2">
         <v>1.0856481481481481E-2</v>
       </c>
-      <c r="D99" s="1"/>
+      <c r="D99" s="4"/>
       <c r="G99" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -3850,12 +3853,12 @@
       <c r="C100" s="2">
         <v>1.3194444444444444E-2</v>
       </c>
-      <c r="D100" s="1"/>
+      <c r="D100" s="4"/>
       <c r="G100" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -3865,12 +3868,12 @@
       <c r="C101" s="2">
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="D101" s="1"/>
+      <c r="D101" s="4"/>
       <c r="G101" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -3880,12 +3883,12 @@
       <c r="C102" s="2">
         <v>1.9293981481481485E-2</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="4"/>
       <c r="G102" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -3895,7 +3898,7 @@
       <c r="C103" s="2">
         <v>2.0381944444444446E-2</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="4">
         <v>303</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -3908,7 +3911,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -3918,12 +3921,12 @@
       <c r="C104" s="2">
         <v>2.1539351851851851E-2</v>
       </c>
-      <c r="D104" s="1"/>
+      <c r="D104" s="4"/>
       <c r="G104" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -3933,12 +3936,12 @@
       <c r="C105" s="2">
         <v>2.2465277777777778E-2</v>
       </c>
-      <c r="D105" s="1"/>
+      <c r="D105" s="4"/>
       <c r="G105" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -3948,12 +3951,12 @@
       <c r="C106" s="2">
         <v>2.269675925925926E-2</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="4"/>
       <c r="G106" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -3963,12 +3966,12 @@
       <c r="C107" s="2">
         <v>2.449074074074074E-2</v>
       </c>
-      <c r="D107" s="1"/>
+      <c r="D107" s="4"/>
       <c r="G107" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -3978,12 +3981,12 @@
       <c r="C108" s="2">
         <v>2.7152777777777779E-2</v>
       </c>
-      <c r="D108" s="1"/>
+      <c r="D108" s="4"/>
       <c r="G108" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>55</v>
       </c>
@@ -3993,7 +3996,7 @@
       <c r="C109" s="2">
         <v>2.7905092592592592E-2</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="4" t="s">
         <v>445</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -4006,7 +4009,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -4016,12 +4019,12 @@
       <c r="C110" s="2">
         <v>2.9699074074074072E-2</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="4"/>
       <c r="G110" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -4031,12 +4034,12 @@
       <c r="C111" s="2">
         <v>3.1030092592592592E-2</v>
       </c>
-      <c r="D111" s="1"/>
+      <c r="D111" s="4"/>
       <c r="G111" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>77</v>
       </c>
@@ -4046,7 +4049,7 @@
       <c r="C112" s="2">
         <v>3.2025462962962964E-2</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="4" t="s">
         <v>449</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -4059,7 +4062,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -4069,7 +4072,7 @@
       <c r="C113" s="2">
         <v>3.2916666666666664E-2</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="4">
         <v>318</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -4082,7 +4085,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -4092,12 +4095,12 @@
       <c r="C114" s="2">
         <v>3.4201388888888885E-2</v>
       </c>
-      <c r="D114" s="1"/>
+      <c r="D114" s="4"/>
       <c r="G114" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -4107,7 +4110,7 @@
       <c r="C115" s="2">
         <v>6.134259259259259E-4</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="4" t="s">
         <v>451</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -4117,7 +4120,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -4127,12 +4130,12 @@
       <c r="C116" s="2">
         <v>7.0601851851851847E-4</v>
       </c>
-      <c r="D116" s="1"/>
+      <c r="D116" s="4"/>
       <c r="G116" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -4142,12 +4145,12 @@
       <c r="C117" s="2">
         <v>1.3425925925925925E-3</v>
       </c>
-      <c r="D117" s="1"/>
+      <c r="D117" s="4"/>
       <c r="G117" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -4157,12 +4160,12 @@
       <c r="C118" s="2">
         <v>2.3032407407407407E-3</v>
       </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="4"/>
       <c r="G118" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>107</v>
       </c>
@@ -4172,12 +4175,12 @@
       <c r="C119" s="2">
         <v>2.6388888888888885E-3</v>
       </c>
-      <c r="D119" s="1"/>
+      <c r="D119" s="4"/>
       <c r="G119" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>113</v>
       </c>
@@ -4187,12 +4190,12 @@
       <c r="C120" s="2">
         <v>2.7314814814814819E-3</v>
       </c>
-      <c r="D120" s="1"/>
+      <c r="D120" s="4"/>
       <c r="G120" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -4202,12 +4205,12 @@
       <c r="C121" s="2">
         <v>3.1249999999999997E-3</v>
       </c>
-      <c r="D121" s="1"/>
+      <c r="D121" s="4"/>
       <c r="G121" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>115</v>
       </c>
@@ -4217,12 +4220,12 @@
       <c r="C122" s="2">
         <v>4.8726851851851856E-3</v>
       </c>
-      <c r="D122" s="1"/>
+      <c r="D122" s="4"/>
       <c r="G122" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>116</v>
       </c>
@@ -4232,12 +4235,12 @@
       <c r="C123" s="2">
         <v>6.3541666666666668E-3</v>
       </c>
-      <c r="D123" s="1"/>
+      <c r="D123" s="4"/>
       <c r="G123" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>117</v>
       </c>
@@ -4247,12 +4250,12 @@
       <c r="C124" s="2">
         <v>7.037037037037037E-3</v>
       </c>
-      <c r="D124" s="1"/>
+      <c r="D124" s="4"/>
       <c r="G124" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>110</v>
       </c>
@@ -4262,12 +4265,12 @@
       <c r="C125" s="2">
         <v>7.0949074074074074E-3</v>
       </c>
-      <c r="D125" s="1"/>
+      <c r="D125" s="4"/>
       <c r="G125" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>118</v>
       </c>
@@ -4277,12 +4280,12 @@
       <c r="C126" s="2">
         <v>8.2407407407407412E-3</v>
       </c>
-      <c r="D126" s="1"/>
+      <c r="D126" s="4"/>
       <c r="G126" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>119</v>
       </c>
@@ -4292,12 +4295,12 @@
       <c r="C127" s="2">
         <v>1.0474537037037037E-2</v>
       </c>
-      <c r="D127" s="1"/>
+      <c r="D127" s="4"/>
       <c r="G127" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>120</v>
       </c>
@@ -4307,12 +4310,12 @@
       <c r="C128" s="2">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="D128" s="1"/>
+      <c r="D128" s="4"/>
       <c r="G128" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>121</v>
       </c>
@@ -4322,7 +4325,7 @@
       <c r="C129" s="2">
         <v>1.4722222222222222E-2</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="4">
         <v>316</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -4335,7 +4338,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>122</v>
       </c>
@@ -4345,7 +4348,7 @@
       <c r="C130" s="2">
         <v>1.6574074074074074E-2</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="4" t="s">
         <v>452</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -4358,7 +4361,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>123</v>
       </c>
@@ -4368,12 +4371,12 @@
       <c r="C131" s="2">
         <v>1.818287037037037E-2</v>
       </c>
-      <c r="D131" s="1"/>
+      <c r="D131" s="4"/>
       <c r="G131" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>124</v>
       </c>
@@ -4383,12 +4386,12 @@
       <c r="C132" s="2">
         <v>1.9525462962962963E-2</v>
       </c>
-      <c r="D132" s="1"/>
+      <c r="D132" s="4"/>
       <c r="G132" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -4398,7 +4401,7 @@
       <c r="C133" s="2">
         <v>2.1006944444444443E-2</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="4">
         <v>442</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -4411,7 +4414,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>126</v>
       </c>
@@ -4421,12 +4424,12 @@
       <c r="C134" s="2">
         <v>2.3078703703703702E-2</v>
       </c>
-      <c r="D134" s="1"/>
+      <c r="D134" s="4"/>
       <c r="G134" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -4436,12 +4439,12 @@
       <c r="C135" s="2">
         <v>2.5057870370370373E-2</v>
       </c>
-      <c r="D135" s="1"/>
+      <c r="D135" s="4"/>
       <c r="G135" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -4451,7 +4454,7 @@
       <c r="C136" s="2">
         <v>2.5381944444444443E-2</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="4" t="s">
         <v>453</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -4464,7 +4467,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -4474,12 +4477,12 @@
       <c r="C137" s="2">
         <v>2.5983796296296297E-2</v>
       </c>
-      <c r="D137" s="1"/>
+      <c r="D137" s="4"/>
       <c r="G137" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>130</v>
       </c>
@@ -4489,12 +4492,12 @@
       <c r="C138" s="2">
         <v>2.6863425925925926E-2</v>
       </c>
-      <c r="D138" s="1"/>
+      <c r="D138" s="4"/>
       <c r="G138" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -4504,12 +4507,12 @@
       <c r="C139" s="2">
         <v>2.7268518518518515E-2</v>
       </c>
-      <c r="D139" s="1"/>
+      <c r="D139" s="4"/>
       <c r="G139" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -4519,12 +4522,12 @@
       <c r="C140" s="2">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="D140" s="1"/>
+      <c r="D140" s="4"/>
       <c r="G140" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>133</v>
       </c>
@@ -4534,12 +4537,12 @@
       <c r="C141" s="2">
         <v>2.9456018518518517E-2</v>
       </c>
-      <c r="D141" s="1"/>
+      <c r="D141" s="4"/>
       <c r="G141" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -4549,12 +4552,12 @@
       <c r="C142" s="2">
         <v>2.9780092592592594E-2</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="4"/>
       <c r="G142" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -4564,12 +4567,12 @@
       <c r="C143" s="2">
         <v>3.0289351851851855E-2</v>
       </c>
-      <c r="D143" s="1"/>
+      <c r="D143" s="4"/>
       <c r="G143" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -4579,12 +4582,12 @@
       <c r="C144" s="2">
         <v>3.0335648148148143E-2</v>
       </c>
-      <c r="D144" s="1"/>
+      <c r="D144" s="4"/>
       <c r="G144" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -4594,12 +4597,12 @@
       <c r="C145" s="2">
         <v>3.1006944444444445E-2</v>
       </c>
-      <c r="D145" s="1"/>
+      <c r="D145" s="4"/>
       <c r="G145" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -4609,12 +4612,12 @@
       <c r="C146" s="2">
         <v>3.1527777777777773E-2</v>
       </c>
-      <c r="D146" s="1"/>
+      <c r="D146" s="4"/>
       <c r="G146" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>138</v>
       </c>
@@ -4624,12 +4627,12 @@
       <c r="C147" s="2">
         <v>3.2141203703703707E-2</v>
       </c>
-      <c r="D147" s="1"/>
+      <c r="D147" s="4"/>
       <c r="G147" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -4639,7 +4642,7 @@
       <c r="C148" s="2">
         <v>3.3877314814814811E-2</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="4">
         <v>335</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -4652,7 +4655,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>140</v>
       </c>
@@ -4662,7 +4665,7 @@
       <c r="C149" s="2">
         <v>3.5636574074074077E-2</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="4" t="s">
         <v>454</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -4675,7 +4678,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>141</v>
       </c>
@@ -4685,12 +4688,12 @@
       <c r="C150" s="2">
         <v>3.7951388888888889E-2</v>
       </c>
-      <c r="D150" s="1"/>
+      <c r="D150" s="4"/>
       <c r="G150" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>142</v>
       </c>
@@ -4700,7 +4703,7 @@
       <c r="C151" s="2">
         <v>4.0092592592592589E-2</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="4">
         <v>336</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -4713,7 +4716,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>143</v>
       </c>
@@ -4723,12 +4726,12 @@
       <c r="C152" s="2">
         <v>4.1342592592592591E-2</v>
       </c>
-      <c r="D152" s="1"/>
+      <c r="D152" s="4"/>
       <c r="G152" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -4738,12 +4741,12 @@
       <c r="C153" s="2">
         <v>3.3564814814814812E-4</v>
       </c>
-      <c r="D153" s="1"/>
+      <c r="D153" s="4"/>
       <c r="G153" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -4753,12 +4756,12 @@
       <c r="C154" s="2">
         <v>3.3564814814814811E-3</v>
       </c>
-      <c r="D154" s="1"/>
+      <c r="D154" s="4"/>
       <c r="G154" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -4768,12 +4771,12 @@
       <c r="C155" s="2">
         <v>4.2939814814814811E-3</v>
       </c>
-      <c r="D155" s="1"/>
+      <c r="D155" s="4"/>
       <c r="G155" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -4783,7 +4786,7 @@
       <c r="C156" s="2">
         <v>5.9375000000000009E-3</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="4" t="s">
         <v>455</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -4796,7 +4799,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -4806,12 +4809,12 @@
       <c r="C157" s="2">
         <v>8.9583333333333338E-3</v>
       </c>
-      <c r="D157" s="1"/>
+      <c r="D157" s="4"/>
       <c r="G157" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>149</v>
       </c>
@@ -4821,12 +4824,12 @@
       <c r="C158" s="2">
         <v>1.3113425925925926E-2</v>
       </c>
-      <c r="D158" s="1"/>
+      <c r="D158" s="4"/>
       <c r="G158" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -4836,12 +4839,12 @@
       <c r="C159" s="2">
         <v>1.4733796296296295E-2</v>
       </c>
-      <c r="D159" s="1"/>
+      <c r="D159" s="4"/>
       <c r="G159" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>151</v>
       </c>
@@ -4851,7 +4854,7 @@
       <c r="C160" s="2">
         <v>1.5208333333333332E-2</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="4" t="s">
         <v>456</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -4864,7 +4867,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -4874,12 +4877,12 @@
       <c r="C161" s="2">
         <v>1.7835648148148149E-2</v>
       </c>
-      <c r="D161" s="1"/>
+      <c r="D161" s="4"/>
       <c r="G161" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>153</v>
       </c>
@@ -4889,12 +4892,12 @@
       <c r="C162" s="2">
         <v>1.861111111111111E-2</v>
       </c>
-      <c r="D162" s="1"/>
+      <c r="D162" s="4"/>
       <c r="G162" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>154</v>
       </c>
@@ -4904,12 +4907,12 @@
       <c r="C163" s="2">
         <v>2.162037037037037E-2</v>
       </c>
-      <c r="D163" s="1"/>
+      <c r="D163" s="4"/>
       <c r="G163" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -4919,7 +4922,7 @@
       <c r="C164" s="2">
         <v>2.34375E-2</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="4" t="s">
         <v>457</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -4932,7 +4935,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -4942,12 +4945,12 @@
       <c r="C165" s="2">
         <v>2.4027777777777776E-2</v>
       </c>
-      <c r="D165" s="1"/>
+      <c r="D165" s="4"/>
       <c r="G165" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -4957,12 +4960,12 @@
       <c r="C166" s="2">
         <v>2.6469907407407411E-2</v>
       </c>
-      <c r="D166" s="1"/>
+      <c r="D166" s="4"/>
       <c r="G166" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>25</v>
       </c>
@@ -4972,7 +4975,7 @@
       <c r="C167" s="2">
         <v>3.0046296296296297E-2</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="4">
         <v>356</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -4985,7 +4988,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -4995,12 +4998,12 @@
       <c r="C168" s="2">
         <v>3.2569444444444443E-2</v>
       </c>
-      <c r="D168" s="1"/>
+      <c r="D168" s="4"/>
       <c r="G168" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>159</v>
       </c>
@@ -5010,12 +5013,12 @@
       <c r="C169" s="2">
         <v>3.3564814814814812E-4</v>
       </c>
-      <c r="D169" s="1"/>
+      <c r="D169" s="4"/>
       <c r="G169" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>160</v>
       </c>
@@ -5025,12 +5028,12 @@
       <c r="C170" s="2">
         <v>1.0185185185185186E-3</v>
       </c>
-      <c r="D170" s="1"/>
+      <c r="D170" s="4"/>
       <c r="G170" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -5040,12 +5043,12 @@
       <c r="C171" s="2">
         <v>1.3541666666666667E-3</v>
       </c>
-      <c r="D171" s="1"/>
+      <c r="D171" s="4"/>
       <c r="G171" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -5055,12 +5058,12 @@
       <c r="C172" s="2">
         <v>3.1249999999999997E-3</v>
       </c>
-      <c r="D172" s="1"/>
+      <c r="D172" s="4"/>
       <c r="G172" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>161</v>
       </c>
@@ -5070,7 +5073,7 @@
       <c r="C173" s="2">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="4" t="s">
         <v>458</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -5083,7 +5086,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>162</v>
       </c>
@@ -5093,12 +5096,12 @@
       <c r="C174" s="2">
         <v>7.4768518518518526E-3</v>
       </c>
-      <c r="D174" s="1"/>
+      <c r="D174" s="4"/>
       <c r="G174" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>163</v>
       </c>
@@ -5108,7 +5111,7 @@
       <c r="C175" s="2">
         <v>8.3101851851851861E-3</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="4" t="s">
         <v>426</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -5121,7 +5124,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -5131,12 +5134,12 @@
       <c r="C176" s="2">
         <v>9.2824074074074076E-3</v>
       </c>
-      <c r="D176" s="1"/>
+      <c r="D176" s="4"/>
       <c r="G176" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>164</v>
       </c>
@@ -5146,12 +5149,12 @@
       <c r="C177" s="2">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="D177" s="1"/>
+      <c r="D177" s="4"/>
       <c r="G177" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>23</v>
       </c>
@@ -5161,12 +5164,12 @@
       <c r="C178" s="2">
         <v>1.0300925925925927E-2</v>
       </c>
-      <c r="D178" s="1"/>
+      <c r="D178" s="4"/>
       <c r="G178" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -5176,7 +5179,7 @@
       <c r="C179" s="2">
         <v>1.1157407407407408E-2</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="4" t="s">
         <v>459</v>
       </c>
       <c r="E179" s="1" t="s">
@@ -5189,7 +5192,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>165</v>
       </c>
@@ -5199,7 +5202,7 @@
       <c r="C180" s="2">
         <v>1.3321759259259261E-2</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -5212,7 +5215,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>166</v>
       </c>
@@ -5222,12 +5225,12 @@
       <c r="C181" s="2">
         <v>1.3483796296296298E-2</v>
       </c>
-      <c r="D181" s="1"/>
+      <c r="D181" s="4"/>
       <c r="G181" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>167</v>
       </c>
@@ -5237,12 +5240,12 @@
       <c r="C182" s="2">
         <v>1.5069444444444443E-2</v>
       </c>
-      <c r="D182" s="1"/>
+      <c r="D182" s="4"/>
       <c r="G182" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>168</v>
       </c>
@@ -5252,12 +5255,12 @@
       <c r="C183" s="2">
         <v>1.7534722222222222E-2</v>
       </c>
-      <c r="D183" s="1"/>
+      <c r="D183" s="4"/>
       <c r="G183" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>169</v>
       </c>
@@ -5267,12 +5270,12 @@
       <c r="C184" s="2">
         <v>1.90625E-2</v>
       </c>
-      <c r="D184" s="1"/>
+      <c r="D184" s="4"/>
       <c r="G184" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>170</v>
       </c>
@@ -5282,12 +5285,12 @@
       <c r="C185" s="2">
         <v>2.0439814814814817E-2</v>
       </c>
-      <c r="D185" s="1"/>
+      <c r="D185" s="4"/>
       <c r="G185" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>171</v>
       </c>
@@ -5297,12 +5300,12 @@
       <c r="C186" s="2">
         <v>2.2777777777777775E-2</v>
       </c>
-      <c r="D186" s="1"/>
+      <c r="D186" s="4"/>
       <c r="G186" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>172</v>
       </c>
@@ -5312,7 +5315,7 @@
       <c r="C187" s="2">
         <v>2.4085648148148148E-2</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="4" t="s">
         <v>461</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -5325,7 +5328,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>173</v>
       </c>
@@ -5335,12 +5338,12 @@
       <c r="C188" s="2">
         <v>2.5173611111111108E-2</v>
       </c>
-      <c r="D188" s="1"/>
+      <c r="D188" s="4"/>
       <c r="G188" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>174</v>
       </c>
@@ -5350,12 +5353,12 @@
       <c r="C189" s="2">
         <v>2.6469907407407411E-2</v>
       </c>
-      <c r="D189" s="1"/>
+      <c r="D189" s="4"/>
       <c r="G189" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>175</v>
       </c>
@@ -5365,12 +5368,12 @@
       <c r="C190" s="2">
         <v>2.75E-2</v>
       </c>
-      <c r="D190" s="1"/>
+      <c r="D190" s="4"/>
       <c r="G190" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>176</v>
       </c>
@@ -5380,12 +5383,12 @@
       <c r="C191" s="2">
         <v>2.8784722222222225E-2</v>
       </c>
-      <c r="D191" s="1"/>
+      <c r="D191" s="4"/>
       <c r="G191" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>177</v>
       </c>
@@ -5395,12 +5398,12 @@
       <c r="C192" s="2">
         <v>3.3761574074074076E-2</v>
       </c>
-      <c r="D192" s="1"/>
+      <c r="D192" s="4"/>
       <c r="G192" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>178</v>
       </c>
@@ -5410,7 +5413,7 @@
       <c r="C193" s="2">
         <v>3.5416666666666666E-2</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="4" t="s">
         <v>462</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -5423,7 +5426,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>179</v>
       </c>
@@ -5433,12 +5436,12 @@
       <c r="C194" s="2">
         <v>3.6550925925925924E-2</v>
       </c>
-      <c r="D194" s="1"/>
+      <c r="D194" s="4"/>
       <c r="G194" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>180</v>
       </c>
@@ -5448,12 +5451,12 @@
       <c r="C195" s="2">
         <v>3.7870370370370367E-2</v>
       </c>
-      <c r="D195" s="1"/>
+      <c r="D195" s="4"/>
       <c r="G195" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>181</v>
       </c>
@@ -5463,12 +5466,12 @@
       <c r="C196" s="2">
         <v>3.858796296296297E-2</v>
       </c>
-      <c r="D196" s="1"/>
+      <c r="D196" s="4"/>
       <c r="G196" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>182</v>
       </c>
@@ -5478,12 +5481,12 @@
       <c r="C197" s="2">
         <v>4.0694444444444443E-2</v>
       </c>
-      <c r="D197" s="1"/>
+      <c r="D197" s="4"/>
       <c r="G197" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>178</v>
       </c>
@@ -5493,12 +5496,12 @@
       <c r="C198" s="2">
         <v>1.1111111111111111E-3</v>
       </c>
-      <c r="D198" s="1"/>
+      <c r="D198" s="4"/>
       <c r="G198" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>183</v>
       </c>
@@ -5508,12 +5511,12 @@
       <c r="C199" s="2">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D199" s="1"/>
+      <c r="D199" s="4"/>
       <c r="G199" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -5523,12 +5526,12 @@
       <c r="C200" s="2">
         <v>4.6759259259259263E-3</v>
       </c>
-      <c r="D200" s="1"/>
+      <c r="D200" s="4"/>
       <c r="G200" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>185</v>
       </c>
@@ -5538,7 +5541,7 @@
       <c r="C201" s="2">
         <v>5.7754629629629623E-3</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="4" t="s">
         <v>463</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -5551,7 +5554,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>186</v>
       </c>
@@ -5561,12 +5564,12 @@
       <c r="C202" s="2">
         <v>8.4606481481481494E-3</v>
       </c>
-      <c r="D202" s="1"/>
+      <c r="D202" s="4"/>
       <c r="G202" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -5576,12 +5579,12 @@
       <c r="C203" s="2">
         <v>1.0046296296296296E-2</v>
       </c>
-      <c r="D203" s="1"/>
+      <c r="D203" s="4"/>
       <c r="G203" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>188</v>
       </c>
@@ -5591,12 +5594,12 @@
       <c r="C204" s="2">
         <v>1.0949074074074075E-2</v>
       </c>
-      <c r="D204" s="1"/>
+      <c r="D204" s="4"/>
       <c r="G204" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>189</v>
       </c>
@@ -5606,12 +5609,12 @@
       <c r="C205" s="2">
         <v>1.1574074074074075E-2</v>
       </c>
-      <c r="D205" s="1"/>
+      <c r="D205" s="4"/>
       <c r="G205" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>190</v>
       </c>
@@ -5621,12 +5624,12 @@
       <c r="C206" s="2">
         <v>1.3900462962962962E-2</v>
       </c>
-      <c r="D206" s="1"/>
+      <c r="D206" s="4"/>
       <c r="G206" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>191</v>
       </c>
@@ -5636,12 +5639,12 @@
       <c r="C207" s="2">
         <v>1.6736111111111111E-2</v>
       </c>
-      <c r="D207" s="1"/>
+      <c r="D207" s="4"/>
       <c r="G207" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>192</v>
       </c>
@@ -5651,12 +5654,12 @@
       <c r="C208" s="2">
         <v>1.9386574074074073E-2</v>
       </c>
-      <c r="D208" s="1"/>
+      <c r="D208" s="4"/>
       <c r="G208" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>193</v>
       </c>
@@ -5666,12 +5669,12 @@
       <c r="C209" s="2">
         <v>2.1180555555555553E-2</v>
       </c>
-      <c r="D209" s="1"/>
+      <c r="D209" s="4"/>
       <c r="G209" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>194</v>
       </c>
@@ -5681,7 +5684,7 @@
       <c r="C210" s="2">
         <v>2.164351851851852E-2</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="4" t="s">
         <v>457</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -5694,7 +5697,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>156</v>
       </c>
@@ -5704,12 +5707,12 @@
       <c r="C211" s="2">
         <v>2.2604166666666665E-2</v>
       </c>
-      <c r="D211" s="1"/>
+      <c r="D211" s="4"/>
       <c r="G211" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>195</v>
       </c>
@@ -5719,12 +5722,12 @@
       <c r="C212" s="2">
         <v>2.4409722222222222E-2</v>
       </c>
-      <c r="D212" s="1"/>
+      <c r="D212" s="4"/>
       <c r="G212" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>196</v>
       </c>
@@ -5734,12 +5737,12 @@
       <c r="C213" s="2">
         <v>2.6284722222222223E-2</v>
       </c>
-      <c r="D213" s="1"/>
+      <c r="D213" s="4"/>
       <c r="G213" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>197</v>
       </c>
@@ -5749,12 +5752,12 @@
       <c r="C214" s="2">
         <v>2.7847222222222221E-2</v>
       </c>
-      <c r="D214" s="1"/>
+      <c r="D214" s="4"/>
       <c r="G214" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>198</v>
       </c>
@@ -5764,12 +5767,12 @@
       <c r="C215" s="2">
         <v>2.8657407407407406E-2</v>
       </c>
-      <c r="D215" s="1"/>
+      <c r="D215" s="4"/>
       <c r="G215" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>199</v>
       </c>
@@ -5779,12 +5782,12 @@
       <c r="C216" s="2">
         <v>3.0266203703703708E-2</v>
       </c>
-      <c r="D216" s="1"/>
+      <c r="D216" s="4"/>
       <c r="G216" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>200</v>
       </c>
@@ -5794,12 +5797,12 @@
       <c r="C217" s="2">
         <v>3.0891203703703702E-2</v>
       </c>
-      <c r="D217" s="1"/>
+      <c r="D217" s="4"/>
       <c r="G217" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>201</v>
       </c>
@@ -5809,12 +5812,12 @@
       <c r="C218" s="2">
         <v>3.1504629629629625E-2</v>
       </c>
-      <c r="D218" s="1"/>
+      <c r="D218" s="4"/>
       <c r="G218" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>167</v>
       </c>
@@ -5824,12 +5827,12 @@
       <c r="C219" s="2">
         <v>3.2025462962962964E-2</v>
       </c>
-      <c r="D219" s="1"/>
+      <c r="D219" s="4"/>
       <c r="G219" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>168</v>
       </c>
@@ -5839,12 +5842,12 @@
       <c r="C220" s="2">
         <v>3.2581018518518516E-2</v>
       </c>
-      <c r="D220" s="1"/>
+      <c r="D220" s="4"/>
       <c r="G220" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>170</v>
       </c>
@@ -5854,12 +5857,12 @@
       <c r="C221" s="2">
         <v>3.2986111111111112E-2</v>
       </c>
-      <c r="D221" s="1"/>
+      <c r="D221" s="4"/>
       <c r="G221" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>171</v>
       </c>
@@ -5869,12 +5872,12 @@
       <c r="C222" s="2">
         <v>3.3761574074074076E-2</v>
       </c>
-      <c r="D222" s="1"/>
+      <c r="D222" s="4"/>
       <c r="G222" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>202</v>
       </c>
@@ -5884,12 +5887,12 @@
       <c r="C223" s="2">
         <v>3.4236111111111113E-2</v>
       </c>
-      <c r="D223" s="1"/>
+      <c r="D223" s="4"/>
       <c r="G223" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>203</v>
       </c>
@@ -5899,12 +5902,12 @@
       <c r="C224" s="2">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="D224" s="1"/>
+      <c r="D224" s="4"/>
       <c r="G224" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>204</v>
       </c>
@@ -5914,12 +5917,12 @@
       <c r="C225" s="2">
         <v>3.5555555555555556E-2</v>
       </c>
-      <c r="D225" s="1"/>
+      <c r="D225" s="4"/>
       <c r="G225" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>205</v>
       </c>
@@ -5929,12 +5932,12 @@
       <c r="C226" s="2">
         <v>3.6018518518518519E-2</v>
       </c>
-      <c r="D226" s="1"/>
+      <c r="D226" s="4"/>
       <c r="G226" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>206</v>
       </c>
@@ -5944,12 +5947,12 @@
       <c r="C227" s="2">
         <v>3.6979166666666667E-2</v>
       </c>
-      <c r="D227" s="1"/>
+      <c r="D227" s="4"/>
       <c r="G227" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>207</v>
       </c>
@@ -5959,12 +5962,12 @@
       <c r="C228" s="2">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="D228" s="1"/>
+      <c r="D228" s="4"/>
       <c r="G228" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>208</v>
       </c>
@@ -5974,12 +5977,12 @@
       <c r="C229" s="2">
         <v>1.8055555555555557E-3</v>
       </c>
-      <c r="D229" s="1"/>
+      <c r="D229" s="4"/>
       <c r="G229" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>209</v>
       </c>
@@ -5989,12 +5992,12 @@
       <c r="C230" s="2">
         <v>2.5231481481481481E-3</v>
       </c>
-      <c r="D230" s="1"/>
+      <c r="D230" s="4"/>
       <c r="G230" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>210</v>
       </c>
@@ -6004,12 +6007,12 @@
       <c r="C231" s="2">
         <v>2.5925925925925925E-3</v>
       </c>
-      <c r="D231" s="1"/>
+      <c r="D231" s="4"/>
       <c r="G231" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>160</v>
       </c>
@@ -6019,12 +6022,12 @@
       <c r="C232" s="2">
         <v>3.8078703703703707E-3</v>
       </c>
-      <c r="D232" s="1"/>
+      <c r="D232" s="4"/>
       <c r="G232" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>211</v>
       </c>
@@ -6034,7 +6037,7 @@
       <c r="C233" s="2">
         <v>4.4328703703703709E-3</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D233" s="4" t="s">
         <v>464</v>
       </c>
       <c r="E233" s="1" t="s">
@@ -6047,7 +6050,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>212</v>
       </c>
@@ -6057,12 +6060,12 @@
       <c r="C234" s="2">
         <v>5.9490740740740745E-3</v>
       </c>
-      <c r="D234" s="1"/>
+      <c r="D234" s="4"/>
       <c r="G234" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>213</v>
       </c>
@@ -6072,12 +6075,12 @@
       <c r="C235" s="2">
         <v>7.4074074074074068E-3</v>
       </c>
-      <c r="D235" s="1"/>
+      <c r="D235" s="4"/>
       <c r="G235" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>214</v>
       </c>
@@ -6087,12 +6090,12 @@
       <c r="C236" s="2">
         <v>8.564814814814815E-3</v>
       </c>
-      <c r="D236" s="1"/>
+      <c r="D236" s="4"/>
       <c r="G236" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>215</v>
       </c>
@@ -6102,12 +6105,12 @@
       <c r="C237" s="2">
         <v>1.1331018518518518E-2</v>
       </c>
-      <c r="D237" s="1"/>
+      <c r="D237" s="4"/>
       <c r="G237" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>216</v>
       </c>
@@ -6117,12 +6120,12 @@
       <c r="C238" s="2">
         <v>1.5092592592592593E-2</v>
       </c>
-      <c r="D238" s="1"/>
+      <c r="D238" s="4"/>
       <c r="G238" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>217</v>
       </c>
@@ -6132,12 +6135,12 @@
       <c r="C239" s="2">
         <v>2.2581018518518518E-2</v>
       </c>
-      <c r="D239" s="1"/>
+      <c r="D239" s="4"/>
       <c r="G239" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>218</v>
       </c>
@@ -6147,12 +6150,12 @@
       <c r="C240" s="2">
         <v>2.6875E-2</v>
       </c>
-      <c r="D240" s="1"/>
+      <c r="D240" s="4"/>
       <c r="G240" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>219</v>
       </c>
@@ -6162,7 +6165,7 @@
       <c r="C241" s="2">
         <v>2.7141203703703706E-2</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D241" s="4" t="s">
         <v>465</v>
       </c>
       <c r="E241" s="1" t="s">
@@ -6175,7 +6178,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>220</v>
       </c>
@@ -6185,12 +6188,12 @@
       <c r="C242" s="2">
         <v>2.7303240740740743E-2</v>
       </c>
-      <c r="D242" s="1"/>
+      <c r="D242" s="4"/>
       <c r="G242" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>221</v>
       </c>
@@ -6200,12 +6203,12 @@
       <c r="C243" s="2">
         <v>2.8483796296296295E-2</v>
       </c>
-      <c r="D243" s="1"/>
+      <c r="D243" s="4"/>
       <c r="G243" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>222</v>
       </c>
@@ -6215,12 +6218,12 @@
       <c r="C244" s="2">
         <v>3.0601851851851852E-2</v>
       </c>
-      <c r="D244" s="1"/>
+      <c r="D244" s="4"/>
       <c r="G244" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>223</v>
       </c>
@@ -6230,7 +6233,7 @@
       <c r="C245" s="2">
         <v>3.1226851851851853E-2</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D245" s="4" t="s">
         <v>466</v>
       </c>
       <c r="E245" s="1" t="s">
@@ -6243,7 +6246,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>224</v>
       </c>
@@ -6253,12 +6256,12 @@
       <c r="C246" s="2">
         <v>3.1909722222222221E-2</v>
       </c>
-      <c r="D246" s="1"/>
+      <c r="D246" s="4"/>
       <c r="G246" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>225</v>
       </c>
@@ -6268,12 +6271,12 @@
       <c r="C247" s="2">
         <v>3.2858796296296296E-2</v>
       </c>
-      <c r="D247" s="1"/>
+      <c r="D247" s="4"/>
       <c r="G247" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>226</v>
       </c>
@@ -6283,7 +6286,7 @@
       <c r="C248" s="2">
         <v>3.4444444444444444E-2</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D248" s="4" t="s">
         <v>466</v>
       </c>
       <c r="E248" s="1" t="s">
@@ -6296,7 +6299,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>227</v>
       </c>
@@ -6306,12 +6309,12 @@
       <c r="C249" s="2">
         <v>3.6805555555555557E-2</v>
       </c>
-      <c r="D249" s="1"/>
+      <c r="D249" s="4"/>
       <c r="G249" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>228</v>
       </c>
@@ -6321,7 +6324,7 @@
       <c r="C250" s="2">
         <v>2.7314814814814819E-3</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" s="4" t="s">
         <v>466</v>
       </c>
       <c r="E250" s="1" t="s">
@@ -6334,7 +6337,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>229</v>
       </c>
@@ -6344,12 +6347,12 @@
       <c r="C251" s="2">
         <v>3.4606481481481485E-3</v>
       </c>
-      <c r="D251" s="1"/>
+      <c r="D251" s="4"/>
       <c r="G251" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>230</v>
       </c>
@@ -6359,12 +6362,12 @@
       <c r="C252" s="2">
         <v>5.8217592592592592E-3</v>
       </c>
-      <c r="D252" s="1"/>
+      <c r="D252" s="4"/>
       <c r="G252" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>184</v>
       </c>
@@ -6374,12 +6377,12 @@
       <c r="C253" s="2">
         <v>7.037037037037037E-3</v>
       </c>
-      <c r="D253" s="1"/>
+      <c r="D253" s="4"/>
       <c r="G253" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>231</v>
       </c>
@@ -6389,12 +6392,12 @@
       <c r="C254" s="2">
         <v>7.0717592592592594E-3</v>
       </c>
-      <c r="D254" s="1"/>
+      <c r="D254" s="4"/>
       <c r="G254" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>232</v>
       </c>
@@ -6404,7 +6407,7 @@
       <c r="C255" s="2">
         <v>1.3599537037037037E-2</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D255" s="4" t="s">
         <v>467</v>
       </c>
       <c r="E255" s="1" t="s">
@@ -6417,7 +6420,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>233</v>
       </c>
@@ -6427,12 +6430,12 @@
       <c r="C256" s="2">
         <v>1.7569444444444447E-2</v>
       </c>
-      <c r="D256" s="1"/>
+      <c r="D256" s="4"/>
       <c r="G256" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>234</v>
       </c>
@@ -6442,12 +6445,12 @@
       <c r="C257" s="2">
         <v>2.2662037037037036E-2</v>
       </c>
-      <c r="D257" s="1"/>
+      <c r="D257" s="4"/>
       <c r="G257" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>219</v>
       </c>
@@ -6457,12 +6460,12 @@
       <c r="C258" s="2">
         <v>2.8726851851851851E-2</v>
       </c>
-      <c r="D258" s="1"/>
+      <c r="D258" s="4"/>
       <c r="G258" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>235</v>
       </c>
@@ -6472,12 +6475,12 @@
       <c r="C259" s="2">
         <v>2.9594907407407407E-2</v>
       </c>
-      <c r="D259" s="1"/>
+      <c r="D259" s="4"/>
       <c r="G259" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>236</v>
       </c>
@@ -6487,12 +6490,12 @@
       <c r="C260" s="2">
         <v>3.2314814814814817E-2</v>
       </c>
-      <c r="D260" s="1"/>
+      <c r="D260" s="4"/>
       <c r="G260" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>237</v>
       </c>
@@ -6502,12 +6505,12 @@
       <c r="C261" s="2">
         <v>3.3379629629629634E-2</v>
       </c>
-      <c r="D261" s="1"/>
+      <c r="D261" s="4"/>
       <c r="G261" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>237</v>
       </c>
@@ -6517,12 +6520,12 @@
       <c r="C262" s="2">
         <v>9.3750000000000007E-4</v>
       </c>
-      <c r="D262" s="1"/>
+      <c r="D262" s="4"/>
       <c r="G262" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>238</v>
       </c>
@@ -6532,7 +6535,7 @@
       <c r="C263" s="2">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D263" s="4" t="s">
         <v>468</v>
       </c>
       <c r="E263" s="1">
@@ -6545,7 +6548,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>239</v>
       </c>
@@ -6555,7 +6558,7 @@
       <c r="C264" s="2">
         <v>4.9768518518518521E-3</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="D264" s="4" t="s">
         <v>469</v>
       </c>
       <c r="E264" s="1">
@@ -6568,7 +6571,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>240</v>
       </c>
@@ -6578,12 +6581,12 @@
       <c r="C265" s="2">
         <v>5.4050925925925924E-3</v>
       </c>
-      <c r="D265" s="1"/>
+      <c r="D265" s="4"/>
       <c r="G265" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>241</v>
       </c>
@@ -6593,12 +6596,12 @@
       <c r="C266" s="2">
         <v>5.9143518518518521E-3</v>
       </c>
-      <c r="D266" s="1"/>
+      <c r="D266" s="4"/>
       <c r="G266" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>242</v>
       </c>
@@ -6608,12 +6611,12 @@
       <c r="C267" s="2">
         <v>6.1805555555555563E-3</v>
       </c>
-      <c r="D267" s="1"/>
+      <c r="D267" s="4"/>
       <c r="G267" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>243</v>
       </c>
@@ -6623,12 +6626,12 @@
       <c r="C268" s="2">
         <v>6.4814814814814813E-3</v>
       </c>
-      <c r="D268" s="1"/>
+      <c r="D268" s="4"/>
       <c r="G268" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>244</v>
       </c>
@@ -6638,12 +6641,12 @@
       <c r="C269" s="2">
         <v>6.851851851851852E-3</v>
       </c>
-      <c r="D269" s="1"/>
+      <c r="D269" s="4"/>
       <c r="G269" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>245</v>
       </c>
@@ -6653,12 +6656,12 @@
       <c r="C270" s="2">
         <v>6.9675925925925921E-3</v>
       </c>
-      <c r="D270" s="1"/>
+      <c r="D270" s="4"/>
       <c r="G270" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>244</v>
       </c>
@@ -6668,12 +6671,12 @@
       <c r="C271" s="2">
         <v>7.0486111111111105E-3</v>
       </c>
-      <c r="D271" s="1"/>
+      <c r="D271" s="4"/>
       <c r="G271" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>246</v>
       </c>
@@ -6683,12 +6686,12 @@
       <c r="C272" s="2">
         <v>8.5532407407407415E-3</v>
       </c>
-      <c r="D272" s="1"/>
+      <c r="D272" s="4"/>
       <c r="G272" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>247</v>
       </c>
@@ -6698,12 +6701,12 @@
       <c r="C273" s="2">
         <v>9.9189814814814817E-3</v>
       </c>
-      <c r="D273" s="1"/>
+      <c r="D273" s="4"/>
       <c r="G273" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>248</v>
       </c>
@@ -6713,7 +6716,7 @@
       <c r="C274" s="2">
         <v>1.2430555555555554E-2</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="D274" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E274" s="1" t="s">
@@ -6726,7 +6729,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>249</v>
       </c>
@@ -6736,7 +6739,7 @@
       <c r="C275" s="2">
         <v>1.4756944444444446E-2</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="D275" s="4" t="s">
         <v>428</v>
       </c>
       <c r="E275" s="1" t="s">
@@ -6749,7 +6752,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>250</v>
       </c>
@@ -6759,12 +6762,12 @@
       <c r="C276" s="2">
         <v>1.5625E-2</v>
       </c>
-      <c r="D276" s="1"/>
+      <c r="D276" s="4"/>
       <c r="G276" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>251</v>
       </c>
@@ -6774,7 +6777,7 @@
       <c r="C277" s="2">
         <v>1.7349537037037038E-2</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="D277" s="4" t="s">
         <v>470</v>
       </c>
       <c r="E277" s="1" t="s">
@@ -6787,7 +6790,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>252</v>
       </c>
@@ -6797,12 +6800,12 @@
       <c r="C278" s="2">
         <v>1.7997685185185186E-2</v>
       </c>
-      <c r="D278" s="1"/>
+      <c r="D278" s="4"/>
       <c r="G278" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>253</v>
       </c>
@@ -6812,7 +6815,7 @@
       <c r="C279" s="2">
         <v>1.8888888888888889E-2</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="D279" s="4" t="s">
         <v>471</v>
       </c>
       <c r="E279" s="1" t="s">
@@ -6825,7 +6828,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>254</v>
       </c>
@@ -6835,12 +6838,12 @@
       <c r="C280" s="2">
         <v>1.9398148148148147E-2</v>
       </c>
-      <c r="D280" s="1"/>
+      <c r="D280" s="4"/>
       <c r="G280" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>255</v>
       </c>
@@ -6850,7 +6853,7 @@
       <c r="C281" s="2">
         <v>2.0416666666666666E-2</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="D281" s="4" t="s">
         <v>472</v>
       </c>
       <c r="E281" s="1" t="s">
@@ -6863,7 +6866,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>256</v>
       </c>
@@ -6873,7 +6876,7 @@
       <c r="C282" s="2">
         <v>2.2141203703703705E-2</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="D282" s="4" t="s">
         <v>473</v>
       </c>
       <c r="E282" s="1" t="s">
@@ -6886,7 +6889,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>257</v>
       </c>
@@ -6896,12 +6899,12 @@
       <c r="C283" s="2">
         <v>2.2777777777777775E-2</v>
       </c>
-      <c r="D283" s="1"/>
+      <c r="D283" s="4"/>
       <c r="G283" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>258</v>
       </c>
@@ -6911,12 +6914,12 @@
       <c r="C284" s="2">
         <v>2.4074074074074071E-2</v>
       </c>
-      <c r="D284" s="1"/>
+      <c r="D284" s="4"/>
       <c r="G284" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>259</v>
       </c>
@@ -6926,12 +6929,12 @@
       <c r="C285" s="2">
         <v>2.4722222222222225E-2</v>
       </c>
-      <c r="D285" s="1"/>
+      <c r="D285" s="4"/>
       <c r="G285" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>260</v>
       </c>
@@ -6941,12 +6944,12 @@
       <c r="C286" s="2">
         <v>2.5937500000000002E-2</v>
       </c>
-      <c r="D286" s="1"/>
+      <c r="D286" s="4"/>
       <c r="G286" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>261</v>
       </c>
@@ -6956,7 +6959,7 @@
       <c r="C287" s="2">
         <v>2.8078703703703703E-2</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="D287" s="4" t="s">
         <v>474</v>
       </c>
       <c r="E287" s="1" t="s">
@@ -6969,7 +6972,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>262</v>
       </c>
@@ -6979,12 +6982,12 @@
       <c r="C288" s="2">
         <v>2.8935185185185185E-2</v>
       </c>
-      <c r="D288" s="1"/>
+      <c r="D288" s="4"/>
       <c r="G288" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>263</v>
       </c>
@@ -6994,12 +6997,12 @@
       <c r="C289" s="2">
         <v>3.0775462962962966E-2</v>
       </c>
-      <c r="D289" s="1"/>
+      <c r="D289" s="4"/>
       <c r="G289" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>264</v>
       </c>
@@ -7009,12 +7012,12 @@
       <c r="C290" s="2">
         <v>3.24537037037037E-2</v>
       </c>
-      <c r="D290" s="1"/>
+      <c r="D290" s="4"/>
       <c r="G290" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>265</v>
       </c>
@@ -7024,12 +7027,12 @@
       <c r="C291" s="2">
         <v>3.2847222222222222E-2</v>
       </c>
-      <c r="D291" s="1"/>
+      <c r="D291" s="4"/>
       <c r="G291" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>266</v>
       </c>
@@ -7039,12 +7042,12 @@
       <c r="C292" s="2">
         <v>3.3541666666666664E-2</v>
       </c>
-      <c r="D292" s="1"/>
+      <c r="D292" s="4"/>
       <c r="G292" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>267</v>
       </c>
@@ -7054,7 +7057,7 @@
       <c r="C293" s="2">
         <v>4.8611111111111104E-4</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="D293" s="4" t="s">
         <v>429</v>
       </c>
       <c r="E293" s="1" t="s">
@@ -7067,7 +7070,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>268</v>
       </c>
@@ -7077,12 +7080,12 @@
       <c r="C294" s="2">
         <v>3.2407407407407406E-3</v>
       </c>
-      <c r="D294" s="1"/>
+      <c r="D294" s="4"/>
       <c r="G294" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>269</v>
       </c>
@@ -7092,12 +7095,12 @@
       <c r="C295" s="2">
         <v>6.7708333333333336E-3</v>
       </c>
-      <c r="D295" s="1"/>
+      <c r="D295" s="4"/>
       <c r="G295" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>270</v>
       </c>
@@ -7107,12 +7110,12 @@
       <c r="C296" s="2">
         <v>9.571759259259259E-3</v>
       </c>
-      <c r="D296" s="1"/>
+      <c r="D296" s="4"/>
       <c r="G296" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>271</v>
       </c>
@@ -7122,12 +7125,12 @@
       <c r="C297" s="2">
         <v>1.5046296296296295E-2</v>
       </c>
-      <c r="D297" s="1"/>
+      <c r="D297" s="4"/>
       <c r="G297" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>272</v>
       </c>
@@ -7137,12 +7140,12 @@
       <c r="C298" s="2">
         <v>1.6481481481481482E-2</v>
       </c>
-      <c r="D298" s="1"/>
+      <c r="D298" s="4"/>
       <c r="G298" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>273</v>
       </c>
@@ -7152,12 +7155,12 @@
       <c r="C299" s="2">
         <v>1.7754629629629631E-2</v>
       </c>
-      <c r="D299" s="1"/>
+      <c r="D299" s="4"/>
       <c r="G299" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>274</v>
       </c>
@@ -7167,12 +7170,12 @@
       <c r="C300" s="2">
         <v>1.8402777777777778E-2</v>
       </c>
-      <c r="D300" s="1"/>
+      <c r="D300" s="4"/>
       <c r="G300" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>275</v>
       </c>
@@ -7182,12 +7185,12 @@
       <c r="C301" s="2">
         <v>1.9143518518518518E-2</v>
       </c>
-      <c r="D301" s="1"/>
+      <c r="D301" s="4"/>
       <c r="G301" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>276</v>
       </c>
@@ -7197,12 +7200,12 @@
       <c r="C302" s="2">
         <v>1.9525462962962963E-2</v>
       </c>
-      <c r="D302" s="1"/>
+      <c r="D302" s="4"/>
       <c r="G302" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>277</v>
       </c>
@@ -7212,12 +7215,12 @@
       <c r="C303" s="2">
         <v>2.0474537037037038E-2</v>
       </c>
-      <c r="D303" s="1"/>
+      <c r="D303" s="4"/>
       <c r="G303" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>278</v>
       </c>
@@ -7227,12 +7230,12 @@
       <c r="C304" s="2">
         <v>2.1168981481481483E-2</v>
       </c>
-      <c r="D304" s="1"/>
+      <c r="D304" s="4"/>
       <c r="G304" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>279</v>
       </c>
@@ -7242,12 +7245,12 @@
       <c r="C305" s="2">
         <v>2.2407407407407407E-2</v>
       </c>
-      <c r="D305" s="1"/>
+      <c r="D305" s="4"/>
       <c r="G305" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>280</v>
       </c>
@@ -7257,12 +7260,12 @@
       <c r="C306" s="2">
         <v>2.3182870370370371E-2</v>
       </c>
-      <c r="D306" s="1"/>
+      <c r="D306" s="4"/>
       <c r="G306" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>281</v>
       </c>
@@ -7272,12 +7275,12 @@
       <c r="C307" s="2">
         <v>2.3784722222222221E-2</v>
       </c>
-      <c r="D307" s="1"/>
+      <c r="D307" s="4"/>
       <c r="G307" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>282</v>
       </c>
@@ -7287,12 +7290,12 @@
       <c r="C308" s="2">
         <v>2.4525462962962968E-2</v>
       </c>
-      <c r="D308" s="1"/>
+      <c r="D308" s="4"/>
       <c r="G308" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>283</v>
       </c>
@@ -7302,12 +7305,12 @@
       <c r="C309" s="2">
         <v>2.5578703703703704E-2</v>
       </c>
-      <c r="D309" s="1"/>
+      <c r="D309" s="4"/>
       <c r="G309" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>284</v>
       </c>
@@ -7317,12 +7320,12 @@
       <c r="C310" s="2">
         <v>2.6296296296296293E-2</v>
       </c>
-      <c r="D310" s="1"/>
+      <c r="D310" s="4"/>
       <c r="G310" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>285</v>
       </c>
@@ -7332,12 +7335,12 @@
       <c r="C311" s="2">
         <v>2.7719907407407405E-2</v>
       </c>
-      <c r="D311" s="1"/>
+      <c r="D311" s="4"/>
       <c r="G311" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>286</v>
       </c>
@@ -7347,12 +7350,12 @@
       <c r="C312" s="2">
         <v>2.8344907407407412E-2</v>
       </c>
-      <c r="D312" s="1"/>
+      <c r="D312" s="4"/>
       <c r="G312" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>287</v>
       </c>
@@ -7362,7 +7365,7 @@
       <c r="C313" s="2">
         <v>3.0046296296296297E-2</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="D313" s="4" t="s">
         <v>475</v>
       </c>
       <c r="E313" s="1" t="s">
@@ -7375,7 +7378,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>288</v>
       </c>
@@ -7385,7 +7388,7 @@
       <c r="C314" s="2">
         <v>3.123842592592593E-2</v>
       </c>
-      <c r="D314" s="1">
+      <c r="D314" s="4">
         <v>444</v>
       </c>
       <c r="E314" s="1" t="s">
@@ -7398,7 +7401,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>65</v>
       </c>
@@ -7408,7 +7411,7 @@
       <c r="C315" s="2">
         <v>3.1331018518518515E-2</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="D315" s="4" t="s">
         <v>476</v>
       </c>
       <c r="E315" s="1" t="s">
@@ -7421,7 +7424,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>289</v>
       </c>
@@ -7431,12 +7434,12 @@
       <c r="C316" s="2">
         <v>3.1932870370370368E-2</v>
       </c>
-      <c r="D316" s="1"/>
+      <c r="D316" s="4"/>
       <c r="G316" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>287</v>
       </c>
@@ -7446,12 +7449,12 @@
       <c r="C317" s="2">
         <v>9.4907407407407408E-4</v>
       </c>
-      <c r="D317" s="1"/>
+      <c r="D317" s="4"/>
       <c r="G317" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>288</v>
       </c>
@@ -7461,7 +7464,7 @@
       <c r="C318" s="2">
         <v>1.8750000000000001E-3</v>
       </c>
-      <c r="D318" s="1">
+      <c r="D318" s="4">
         <v>444</v>
       </c>
       <c r="E318" s="1" t="s">
@@ -7474,7 +7477,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>65</v>
       </c>
@@ -7484,12 +7487,12 @@
       <c r="C319" s="2">
         <v>2.1412037037037038E-3</v>
       </c>
-      <c r="D319" s="1"/>
+      <c r="D319" s="4"/>
       <c r="G319" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>289</v>
       </c>
@@ -7499,12 +7502,12 @@
       <c r="C320" s="2">
         <v>2.7662037037037034E-3</v>
       </c>
-      <c r="D320" s="1"/>
+      <c r="D320" s="4"/>
       <c r="G320" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>290</v>
       </c>
@@ -7514,7 +7517,7 @@
       <c r="C321" s="2">
         <v>4.2129629629629626E-3</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="4">
         <v>444</v>
       </c>
       <c r="E321" s="1" t="s">
@@ -7527,7 +7530,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>291</v>
       </c>
@@ -7537,7 +7540,7 @@
       <c r="C322" s="2">
         <v>7.1874999999999994E-3</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="D322" s="4" t="s">
         <v>477</v>
       </c>
       <c r="E322" s="1" t="s">
@@ -7550,7 +7553,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>292</v>
       </c>
@@ -7560,7 +7563,7 @@
       <c r="C323" s="2">
         <v>8.726851851851852E-3</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="D323" s="4" t="s">
         <v>478</v>
       </c>
       <c r="E323" s="1" t="s">
@@ -7573,7 +7576,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>293</v>
       </c>
@@ -7583,12 +7586,12 @@
       <c r="C324" s="2">
         <v>1.1481481481481483E-2</v>
       </c>
-      <c r="D324" s="1"/>
+      <c r="D324" s="4"/>
       <c r="G324" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>294</v>
       </c>
@@ -7598,7 +7601,7 @@
       <c r="C325" s="2">
         <v>1.3194444444444444E-2</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="D325" s="4" t="s">
         <v>479</v>
       </c>
       <c r="E325" s="1" t="s">
@@ -7611,7 +7614,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>295</v>
       </c>
@@ -7621,12 +7624,12 @@
       <c r="C326" s="2">
         <v>1.4814814814814814E-2</v>
       </c>
-      <c r="D326" s="1"/>
+      <c r="D326" s="4"/>
       <c r="G326" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>296</v>
       </c>
@@ -7636,7 +7639,7 @@
       <c r="C327" s="2">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327" s="4">
         <v>453</v>
       </c>
       <c r="E327" s="1" t="s">
@@ -7649,7 +7652,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>297</v>
       </c>
@@ -7659,12 +7662,12 @@
       <c r="C328" s="2">
         <v>1.6307870370370372E-2</v>
       </c>
-      <c r="D328" s="1"/>
+      <c r="D328" s="4"/>
       <c r="G328" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>298</v>
       </c>
@@ -7674,12 +7677,12 @@
       <c r="C329" s="2">
         <v>2.5127314814814811E-2</v>
       </c>
-      <c r="D329" s="1"/>
+      <c r="D329" s="4"/>
       <c r="G329" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>299</v>
       </c>
@@ -7689,12 +7692,12 @@
       <c r="C330" s="2">
         <v>2.6655092592592591E-2</v>
       </c>
-      <c r="D330" s="1"/>
+      <c r="D330" s="4"/>
       <c r="G330" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>300</v>
       </c>
@@ -7704,12 +7707,12 @@
       <c r="C331" s="2">
         <v>3.0810185185185187E-2</v>
       </c>
-      <c r="D331" s="1"/>
+      <c r="D331" s="4"/>
       <c r="G331" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>301</v>
       </c>
@@ -7719,7 +7722,7 @@
       <c r="C332" s="2">
         <v>3.3148148148148149E-2</v>
       </c>
-      <c r="D332" s="1" t="s">
+      <c r="D332" s="4" t="s">
         <v>480</v>
       </c>
       <c r="E332" s="1" t="s">
@@ -7732,7 +7735,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>565</v>
       </c>
@@ -7742,12 +7745,12 @@
       <c r="C333" s="2">
         <v>3.4467592592592591E-2</v>
       </c>
-      <c r="D333" s="1"/>
+      <c r="D333" s="4"/>
       <c r="G333" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>566</v>
       </c>
@@ -7757,12 +7760,12 @@
       <c r="C334" s="2">
         <v>7.5694444444444446E-3</v>
       </c>
-      <c r="D334" s="1"/>
+      <c r="D334" s="4"/>
       <c r="G334" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>289</v>
       </c>
@@ -7772,7 +7775,7 @@
       <c r="C335" s="2">
         <v>8.4143518518518517E-3</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="D335" s="4" t="s">
         <v>475</v>
       </c>
       <c r="E335" s="1" t="s">
@@ -7785,7 +7788,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>567</v>
       </c>
@@ -7795,12 +7798,12 @@
       <c r="C336" s="2">
         <v>8.9814814814814809E-3</v>
       </c>
-      <c r="D336" s="1"/>
+      <c r="D336" s="4"/>
       <c r="G336" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>302</v>
       </c>
@@ -7810,12 +7813,12 @@
       <c r="C337" s="2">
         <v>1.4039351851851851E-2</v>
       </c>
-      <c r="D337" s="1"/>
+      <c r="D337" s="4"/>
       <c r="G337" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>568</v>
       </c>
@@ -7825,12 +7828,12 @@
       <c r="C338" s="2">
         <v>1.4317129629629631E-2</v>
       </c>
-      <c r="D338" s="1"/>
+      <c r="D338" s="4"/>
       <c r="G338" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>303</v>
       </c>
@@ -7840,12 +7843,12 @@
       <c r="C339" s="2">
         <v>1.5636574074074074E-2</v>
       </c>
-      <c r="D339" s="1"/>
+      <c r="D339" s="4"/>
       <c r="G339" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>304</v>
       </c>
@@ -7855,12 +7858,12 @@
       <c r="C340" s="2">
         <v>1.8090277777777778E-2</v>
       </c>
-      <c r="D340" s="1"/>
+      <c r="D340" s="4"/>
       <c r="G340" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>305</v>
       </c>
@@ -7870,12 +7873,12 @@
       <c r="C341" s="2">
         <v>1.894675925925926E-2</v>
       </c>
-      <c r="D341" s="1"/>
+      <c r="D341" s="4"/>
       <c r="G341" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>306</v>
       </c>
@@ -7885,12 +7888,12 @@
       <c r="C342" s="2">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="D342" s="1"/>
+      <c r="D342" s="4"/>
       <c r="G342" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>307</v>
       </c>
@@ -7900,12 +7903,12 @@
       <c r="C343" s="2">
         <v>2.045138888888889E-2</v>
       </c>
-      <c r="D343" s="1"/>
+      <c r="D343" s="4"/>
       <c r="G343" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>308</v>
       </c>
@@ -7915,12 +7918,12 @@
       <c r="C344" s="2">
         <v>2.1689814814814815E-2</v>
       </c>
-      <c r="D344" s="1"/>
+      <c r="D344" s="4"/>
       <c r="G344" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>309</v>
       </c>
@@ -7930,7 +7933,7 @@
       <c r="C345" s="2">
         <v>2.3344907407407408E-2</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="D345" s="4" t="s">
         <v>481</v>
       </c>
       <c r="E345" s="1" t="s">
@@ -7943,7 +7946,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>310</v>
       </c>
@@ -7953,7 +7956,7 @@
       <c r="C346" s="2">
         <v>2.5347222222222219E-2</v>
       </c>
-      <c r="D346" s="1">
+      <c r="D346" s="4">
         <v>542</v>
       </c>
       <c r="E346" s="1" t="s">
@@ -7966,7 +7969,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>311</v>
       </c>
@@ -7976,12 +7979,12 @@
       <c r="C347" s="2">
         <v>2.5810185185185183E-2</v>
       </c>
-      <c r="D347" s="1"/>
+      <c r="D347" s="4"/>
       <c r="G347" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>312</v>
       </c>
@@ -7991,7 +7994,7 @@
       <c r="C348" s="2">
         <v>2.8773148148148145E-2</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="D348" s="4" t="s">
         <v>482</v>
       </c>
       <c r="E348" s="1" t="s">
@@ -8004,7 +8007,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>313</v>
       </c>
@@ -8014,12 +8017,12 @@
       <c r="C349" s="2">
         <v>2.9560185185185189E-2</v>
       </c>
-      <c r="D349" s="1"/>
+      <c r="D349" s="4"/>
       <c r="G349" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>314</v>
       </c>
@@ -8029,12 +8032,12 @@
       <c r="C350" s="2">
         <v>2.9675925925925925E-2</v>
       </c>
-      <c r="D350" s="1"/>
+      <c r="D350" s="4"/>
       <c r="G350" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>315</v>
       </c>
@@ -8044,12 +8047,12 @@
       <c r="C351" s="2">
         <v>3.0462962962962966E-2</v>
       </c>
-      <c r="D351" s="1"/>
+      <c r="D351" s="4"/>
       <c r="G351" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>316</v>
       </c>
@@ -8059,12 +8062,12 @@
       <c r="C352" s="2">
         <v>3.1793981481481479E-2</v>
       </c>
-      <c r="D352" s="1"/>
+      <c r="D352" s="4"/>
       <c r="G352" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>317</v>
       </c>
@@ -8074,12 +8077,12 @@
       <c r="C353" s="2">
         <v>1.3541666666666667E-3</v>
       </c>
-      <c r="D353" s="1"/>
+      <c r="D353" s="4"/>
       <c r="G353" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>316</v>
       </c>
@@ -8089,12 +8092,12 @@
       <c r="C354" s="2">
         <v>2.0370370370370373E-3</v>
       </c>
-      <c r="D354" s="1"/>
+      <c r="D354" s="4"/>
       <c r="G354" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>318</v>
       </c>
@@ -8104,7 +8107,7 @@
       <c r="C355" s="2">
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="D355" s="4" t="s">
         <v>483</v>
       </c>
       <c r="E355" s="1" t="s">
@@ -8117,7 +8120,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>319</v>
       </c>
@@ -8127,7 +8130,7 @@
       <c r="C356" s="2">
         <v>6.9097222222222225E-3</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="D356" s="4" t="s">
         <v>484</v>
       </c>
       <c r="E356" s="1" t="s">
@@ -8140,7 +8143,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>320</v>
       </c>
@@ -8150,7 +8153,7 @@
       <c r="C357" s="2">
         <v>8.3680555555555557E-3</v>
       </c>
-      <c r="D357" s="1">
+      <c r="D357" s="4">
         <v>537</v>
       </c>
       <c r="E357" s="1" t="s">
@@ -8163,7 +8166,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>321</v>
       </c>
@@ -8173,12 +8176,12 @@
       <c r="C358" s="2">
         <v>1.0787037037037038E-2</v>
       </c>
-      <c r="D358" s="1"/>
+      <c r="D358" s="4"/>
       <c r="G358" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>322</v>
       </c>
@@ -8188,12 +8191,12 @@
       <c r="C359" s="2">
         <v>1.1574074074074075E-2</v>
       </c>
-      <c r="D359" s="1"/>
+      <c r="D359" s="4"/>
       <c r="G359" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>323</v>
       </c>
@@ -8203,12 +8206,12 @@
       <c r="C360" s="2">
         <v>1.1944444444444445E-2</v>
       </c>
-      <c r="D360" s="1"/>
+      <c r="D360" s="4"/>
       <c r="G360" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>324</v>
       </c>
@@ -8218,12 +8221,12 @@
       <c r="C361" s="2">
         <v>1.292824074074074E-2</v>
       </c>
-      <c r="D361" s="1"/>
+      <c r="D361" s="4"/>
       <c r="G361" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>325</v>
       </c>
@@ -8233,12 +8236,12 @@
       <c r="C362" s="2">
         <v>1.462962962962963E-2</v>
       </c>
-      <c r="D362" s="1"/>
+      <c r="D362" s="4"/>
       <c r="G362" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>326</v>
       </c>
@@ -8248,12 +8251,12 @@
       <c r="C363" s="2">
         <v>1.5416666666666667E-2</v>
       </c>
-      <c r="D363" s="1"/>
+      <c r="D363" s="4"/>
       <c r="G363" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>327</v>
       </c>
@@ -8263,12 +8266,12 @@
       <c r="C364" s="2">
         <v>1.5740740740740743E-2</v>
       </c>
-      <c r="D364" s="1"/>
+      <c r="D364" s="4"/>
       <c r="G364" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>328</v>
       </c>
@@ -8278,12 +8281,12 @@
       <c r="C365" s="2">
         <v>1.7187499999999998E-2</v>
       </c>
-      <c r="D365" s="1"/>
+      <c r="D365" s="4"/>
       <c r="G365" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>329</v>
       </c>
@@ -8293,12 +8296,12 @@
       <c r="C366" s="2">
         <v>1.9606481481481482E-2</v>
       </c>
-      <c r="D366" s="1"/>
+      <c r="D366" s="4"/>
       <c r="G366" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>330</v>
       </c>
@@ -8308,12 +8311,12 @@
       <c r="C367" s="2">
         <v>2.0335648148148148E-2</v>
       </c>
-      <c r="D367" s="1"/>
+      <c r="D367" s="4"/>
       <c r="G367" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>331</v>
       </c>
@@ -8323,12 +8326,12 @@
       <c r="C368" s="2">
         <v>2.1006944444444443E-2</v>
       </c>
-      <c r="D368" s="1"/>
+      <c r="D368" s="4"/>
       <c r="G368" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>332</v>
       </c>
@@ -8338,12 +8341,12 @@
       <c r="C369" s="2">
         <v>2.1562499999999998E-2</v>
       </c>
-      <c r="D369" s="1"/>
+      <c r="D369" s="4"/>
       <c r="G369" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>333</v>
       </c>
@@ -8353,12 +8356,12 @@
       <c r="C370" s="2">
         <v>2.2337962962962962E-2</v>
       </c>
-      <c r="D370" s="1"/>
+      <c r="D370" s="4"/>
       <c r="G370" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>334</v>
       </c>
@@ -8368,7 +8371,7 @@
       <c r="C371" s="2">
         <v>2.2627314814814819E-2</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="D371" s="4" t="s">
         <v>485</v>
       </c>
       <c r="E371" s="1" t="s">
@@ -8381,7 +8384,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>335</v>
       </c>
@@ -8391,12 +8394,12 @@
       <c r="C372" s="2">
         <v>2.3935185185185184E-2</v>
       </c>
-      <c r="D372" s="1"/>
+      <c r="D372" s="4"/>
       <c r="G372" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>336</v>
       </c>
@@ -8406,7 +8409,7 @@
       <c r="C373" s="2">
         <v>2.5150462962962961E-2</v>
       </c>
-      <c r="D373" s="1">
+      <c r="D373" s="4">
         <v>556</v>
       </c>
       <c r="E373" s="1" t="s">
@@ -8419,7 +8422,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>337</v>
       </c>
@@ -8429,12 +8432,12 @@
       <c r="C374" s="2">
         <v>2.5451388888888888E-2</v>
       </c>
-      <c r="D374" s="1"/>
+      <c r="D374" s="4"/>
       <c r="G374" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>338</v>
       </c>
@@ -8444,7 +8447,7 @@
       <c r="C375" s="2">
         <v>2.9513888888888892E-2</v>
       </c>
-      <c r="D375" s="1">
+      <c r="D375" s="4">
         <v>560</v>
       </c>
       <c r="E375" s="1" t="s">
@@ -8457,7 +8460,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>337</v>
       </c>
@@ -8467,12 +8470,12 @@
       <c r="C376" s="2">
         <v>3.1030092592592592E-2</v>
       </c>
-      <c r="D376" s="1"/>
+      <c r="D376" s="4"/>
       <c r="G376" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>321</v>
       </c>
@@ -8482,12 +8485,12 @@
       <c r="C377" s="2">
         <v>3.1215277777777783E-2</v>
       </c>
-      <c r="D377" s="1"/>
+      <c r="D377" s="4"/>
       <c r="G377" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>339</v>
       </c>
@@ -8497,12 +8500,12 @@
       <c r="C378" s="2">
         <v>3.1354166666666662E-2</v>
       </c>
-      <c r="D378" s="1"/>
+      <c r="D378" s="4"/>
       <c r="G378" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>338</v>
       </c>
@@ -8512,12 +8515,12 @@
       <c r="C379" s="2">
         <v>3.3506944444444443E-2</v>
       </c>
-      <c r="D379" s="1"/>
+      <c r="D379" s="4"/>
       <c r="G379" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>340</v>
       </c>
@@ -8527,12 +8530,12 @@
       <c r="C380" s="2">
         <v>3.3865740740740738E-2</v>
       </c>
-      <c r="D380" s="1"/>
+      <c r="D380" s="4"/>
       <c r="G380" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>341</v>
       </c>
@@ -8542,12 +8545,12 @@
       <c r="C381" s="2">
         <v>3.4942129629629635E-2</v>
       </c>
-      <c r="D381" s="1"/>
+      <c r="D381" s="4"/>
       <c r="G381" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>342</v>
       </c>
@@ -8557,12 +8560,12 @@
       <c r="C382" s="2">
         <v>5.3240740740740744E-4</v>
       </c>
-      <c r="D382" s="1"/>
+      <c r="D382" s="4"/>
       <c r="G382" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>343</v>
       </c>
@@ -8572,7 +8575,7 @@
       <c r="C383" s="2">
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="D383" s="4" t="s">
         <v>486</v>
       </c>
       <c r="E383" s="1" t="s">
@@ -8585,7 +8588,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>344</v>
       </c>
@@ -8595,12 +8598,12 @@
       <c r="C384" s="2">
         <v>3.6689814814814814E-3</v>
       </c>
-      <c r="D384" s="1"/>
+      <c r="D384" s="4"/>
       <c r="G384" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>345</v>
       </c>
@@ -8610,12 +8613,12 @@
       <c r="C385" s="2">
         <v>4.5370370370370365E-3</v>
       </c>
-      <c r="D385" s="1"/>
+      <c r="D385" s="4"/>
       <c r="G385" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>346</v>
       </c>
@@ -8625,12 +8628,12 @@
       <c r="C386" s="2">
         <v>5.2546296296296299E-3</v>
       </c>
-      <c r="D386" s="1"/>
+      <c r="D386" s="4"/>
       <c r="G386" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>347</v>
       </c>
@@ -8640,12 +8643,12 @@
       <c r="C387" s="2">
         <v>2.4976851851851851E-2</v>
       </c>
-      <c r="D387" s="1"/>
+      <c r="D387" s="4"/>
       <c r="G387" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>348</v>
       </c>
@@ -8655,12 +8658,12 @@
       <c r="C388" s="2">
         <v>3.0543981481481481E-2</v>
       </c>
-      <c r="D388" s="1"/>
+      <c r="D388" s="4"/>
       <c r="G388" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>349</v>
       </c>
@@ -8670,12 +8673,12 @@
       <c r="C389" s="2">
         <v>3.1597222222222221E-2</v>
       </c>
-      <c r="D389" s="1"/>
+      <c r="D389" s="4"/>
       <c r="G389" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>350</v>
       </c>
@@ -8685,12 +8688,12 @@
       <c r="C390" s="2">
         <v>3.5243055555555555E-2</v>
       </c>
-      <c r="D390" s="1"/>
+      <c r="D390" s="4"/>
       <c r="G390" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>351</v>
       </c>
@@ -8700,12 +8703,12 @@
       <c r="C391" s="2">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="D391" s="1"/>
+      <c r="D391" s="4"/>
       <c r="G391" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>352</v>
       </c>
@@ -8715,12 +8718,12 @@
       <c r="C392" s="2">
         <v>1.7013888888888892E-3</v>
       </c>
-      <c r="D392" s="1"/>
+      <c r="D392" s="4"/>
       <c r="G392" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>353</v>
       </c>
@@ -8730,12 +8733,12 @@
       <c r="C393" s="2">
         <v>4.4675925925925933E-3</v>
       </c>
-      <c r="D393" s="1"/>
+      <c r="D393" s="4"/>
       <c r="G393" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>354</v>
       </c>
@@ -8745,7 +8748,7 @@
       <c r="C394" s="2">
         <v>5.1504629629629635E-3</v>
       </c>
-      <c r="D394" s="1" t="s">
+      <c r="D394" s="4" t="s">
         <v>487</v>
       </c>
       <c r="E394" s="1" t="s">
@@ -8758,7 +8761,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>355</v>
       </c>
@@ -8768,7 +8771,7 @@
       <c r="C395" s="2">
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="D395" s="1">
+      <c r="D395" s="4">
         <v>471</v>
       </c>
       <c r="E395" s="1" t="s">
@@ -8781,7 +8784,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>356</v>
       </c>
@@ -8791,12 +8794,12 @@
       <c r="C396" s="2">
         <v>5.5787037037037038E-3</v>
       </c>
-      <c r="D396" s="1"/>
+      <c r="D396" s="4"/>
       <c r="G396" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>357</v>
       </c>
@@ -8806,12 +8809,12 @@
       <c r="C397" s="2">
         <v>7.3379629629629628E-3</v>
       </c>
-      <c r="D397" s="1"/>
+      <c r="D397" s="4"/>
       <c r="G397" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>358</v>
       </c>
@@ -8821,7 +8824,7 @@
       <c r="C398" s="2">
         <v>7.3726851851851861E-3</v>
       </c>
-      <c r="D398" s="1">
+      <c r="D398" s="4">
         <v>472</v>
       </c>
       <c r="E398" s="1" t="s">
@@ -8834,7 +8837,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>359</v>
       </c>
@@ -8844,12 +8847,12 @@
       <c r="C399" s="2">
         <v>9.3518518518518525E-3</v>
       </c>
-      <c r="D399" s="1"/>
+      <c r="D399" s="4"/>
       <c r="G399" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>357</v>
       </c>
@@ -8859,12 +8862,12 @@
       <c r="C400" s="2">
         <v>9.5023148148148159E-3</v>
       </c>
-      <c r="D400" s="1"/>
+      <c r="D400" s="4"/>
       <c r="G400" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>360</v>
       </c>
@@ -8874,12 +8877,12 @@
       <c r="C401" s="2">
         <v>1.0011574074074074E-2</v>
       </c>
-      <c r="D401" s="1"/>
+      <c r="D401" s="4"/>
       <c r="G401" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>361</v>
       </c>
@@ -8889,12 +8892,12 @@
       <c r="C402" s="2">
         <v>1.3368055555555557E-2</v>
       </c>
-      <c r="D402" s="1"/>
+      <c r="D402" s="4"/>
       <c r="G402" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>362</v>
       </c>
@@ -8904,12 +8907,12 @@
       <c r="C403" s="2">
         <v>1.5381944444444443E-2</v>
       </c>
-      <c r="D403" s="1"/>
+      <c r="D403" s="4"/>
       <c r="G403" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>363</v>
       </c>
@@ -8919,7 +8922,7 @@
       <c r="C404" s="2">
         <v>1.7291666666666667E-2</v>
       </c>
-      <c r="D404" s="1" t="s">
+      <c r="D404" s="4" t="s">
         <v>488</v>
       </c>
       <c r="E404" s="1" t="s">
@@ -8932,7 +8935,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>364</v>
       </c>
@@ -8942,12 +8945,12 @@
       <c r="C405" s="2">
         <v>1.8078703703703704E-2</v>
       </c>
-      <c r="D405" s="1"/>
+      <c r="D405" s="4"/>
       <c r="G405" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>365</v>
       </c>
@@ -8957,7 +8960,7 @@
       <c r="C406" s="2">
         <v>2.1157407407407406E-2</v>
       </c>
-      <c r="D406" s="1" t="s">
+      <c r="D406" s="4" t="s">
         <v>489</v>
       </c>
       <c r="E406" s="1" t="s">
@@ -8970,7 +8973,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>366</v>
       </c>
@@ -8980,12 +8983,12 @@
       <c r="C407" s="2">
         <v>2.1863425925925925E-2</v>
       </c>
-      <c r="D407" s="1"/>
+      <c r="D407" s="4"/>
       <c r="G407" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>367</v>
       </c>
@@ -8995,12 +8998,12 @@
       <c r="C408" s="2">
         <v>2.3136574074074077E-2</v>
       </c>
-      <c r="D408" s="1"/>
+      <c r="D408" s="4"/>
       <c r="G408" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>368</v>
       </c>
@@ -9010,7 +9013,7 @@
       <c r="C409" s="2">
         <v>2.4664351851851851E-2</v>
       </c>
-      <c r="D409" s="1">
+      <c r="D409" s="4">
         <v>486</v>
       </c>
       <c r="E409" s="1" t="s">
@@ -9023,7 +9026,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>369</v>
       </c>
@@ -9033,12 +9036,12 @@
       <c r="C410" s="2">
         <v>2.5717592592592594E-2</v>
       </c>
-      <c r="D410" s="1"/>
+      <c r="D410" s="4"/>
       <c r="G410" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>370</v>
       </c>
@@ -9048,12 +9051,12 @@
       <c r="C411" s="2">
         <v>2.6446759259259264E-2</v>
       </c>
-      <c r="D411" s="1"/>
+      <c r="D411" s="4"/>
       <c r="G411" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>371</v>
       </c>
@@ -9063,7 +9066,7 @@
       <c r="C412" s="2">
         <v>2.9155092592592594E-2</v>
       </c>
-      <c r="D412" s="1" t="s">
+      <c r="D412" s="4" t="s">
         <v>490</v>
       </c>
       <c r="E412" s="1" t="s">
@@ -9076,7 +9079,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>372</v>
       </c>
@@ -9086,12 +9089,12 @@
       <c r="C413" s="2">
         <v>3.2199074074074074E-2</v>
       </c>
-      <c r="D413" s="1"/>
+      <c r="D413" s="4"/>
       <c r="G413" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>371</v>
       </c>
@@ -9101,7 +9104,7 @@
       <c r="C414" s="2">
         <v>4.5370370370370365E-3</v>
       </c>
-      <c r="D414" s="1" t="s">
+      <c r="D414" s="4" t="s">
         <v>490</v>
       </c>
       <c r="E414" s="1" t="s">
@@ -9114,7 +9117,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>373</v>
       </c>
@@ -9124,7 +9127,7 @@
       <c r="C415" s="2">
         <v>5.1273148148148146E-3</v>
       </c>
-      <c r="D415" s="1" t="s">
+      <c r="D415" s="4" t="s">
         <v>491</v>
       </c>
       <c r="E415" s="1" t="s">
@@ -9137,7 +9140,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>374</v>
       </c>
@@ -9147,12 +9150,12 @@
       <c r="C416" s="2">
         <v>8.3796296296296292E-3</v>
       </c>
-      <c r="D416" s="1"/>
+      <c r="D416" s="4"/>
       <c r="G416" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>375</v>
       </c>
@@ -9162,12 +9165,12 @@
       <c r="C417" s="2">
         <v>1.34375E-2</v>
       </c>
-      <c r="D417" s="1"/>
+      <c r="D417" s="4"/>
       <c r="G417" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>376</v>
       </c>
@@ -9177,12 +9180,12 @@
       <c r="C418" s="2">
         <v>1.6944444444444443E-2</v>
       </c>
-      <c r="D418" s="1"/>
+      <c r="D418" s="4"/>
       <c r="G418" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>377</v>
       </c>
@@ -9192,12 +9195,12 @@
       <c r="C419" s="2">
         <v>2.2685185185185183E-2</v>
       </c>
-      <c r="D419" s="1"/>
+      <c r="D419" s="4"/>
       <c r="G419" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>378</v>
       </c>
@@ -9207,7 +9210,7 @@
       <c r="C420" s="2">
         <v>2.388888888888889E-2</v>
       </c>
-      <c r="D420" s="1" t="s">
+      <c r="D420" s="4" t="s">
         <v>492</v>
       </c>
       <c r="E420" s="1" t="s">
@@ -9220,7 +9223,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>379</v>
       </c>
@@ -9230,7 +9233,7 @@
       <c r="C421" s="2">
         <v>2.5439814814814814E-2</v>
       </c>
-      <c r="D421" s="1" t="s">
+      <c r="D421" s="4" t="s">
         <v>493</v>
       </c>
       <c r="E421" s="1" t="s">
@@ -9243,7 +9246,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>380</v>
       </c>
@@ -9253,12 +9256,12 @@
       <c r="C422" s="2">
         <v>3.0902777777777779E-2</v>
       </c>
-      <c r="D422" s="1"/>
+      <c r="D422" s="4"/>
       <c r="G422" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>381</v>
       </c>
@@ -9268,7 +9271,7 @@
       <c r="C423" s="2">
         <v>3.1759259259259258E-2</v>
       </c>
-      <c r="D423" s="1" t="s">
+      <c r="D423" s="4" t="s">
         <v>494</v>
       </c>
       <c r="E423" s="1" t="s">
@@ -9281,7 +9284,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>382</v>
       </c>
@@ -9291,12 +9294,12 @@
       <c r="C424" s="2">
         <v>3.363425925925926E-2</v>
       </c>
-      <c r="D424" s="1"/>
+      <c r="D424" s="4"/>
       <c r="G424" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>381</v>
       </c>
@@ -9306,12 +9309,12 @@
       <c r="C425" s="2">
         <v>1.0532407407407407E-3</v>
       </c>
-      <c r="D425" s="1"/>
+      <c r="D425" s="4"/>
       <c r="G425" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>382</v>
       </c>
@@ -9321,12 +9324,12 @@
       <c r="C426" s="2">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="D426" s="1"/>
+      <c r="D426" s="4"/>
       <c r="G426" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>383</v>
       </c>
@@ -9336,7 +9339,7 @@
       <c r="C427" s="2">
         <v>3.2523148148148151E-3</v>
       </c>
-      <c r="D427" s="1" t="s">
+      <c r="D427" s="4" t="s">
         <v>494</v>
       </c>
       <c r="E427" s="1" t="s">
@@ -9349,7 +9352,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>384</v>
       </c>
@@ -9359,12 +9362,12 @@
       <c r="C428" s="2">
         <v>5.0115740740740737E-3</v>
       </c>
-      <c r="D428" s="1"/>
+      <c r="D428" s="4"/>
       <c r="G428" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>385</v>
       </c>
@@ -9374,12 +9377,12 @@
       <c r="C429" s="2">
         <v>9.4097222222222238E-3</v>
       </c>
-      <c r="D429" s="1"/>
+      <c r="D429" s="4"/>
       <c r="G429" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>386</v>
       </c>
@@ -9389,7 +9392,7 @@
       <c r="C430" s="2">
         <v>2.0127314814814817E-2</v>
       </c>
-      <c r="D430" s="1" t="s">
+      <c r="D430" s="4" t="s">
         <v>495</v>
       </c>
       <c r="E430" s="1" t="s">
@@ -9402,7 +9405,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>387</v>
       </c>
@@ -9412,12 +9415,12 @@
       <c r="C431" s="2">
         <v>2.4525462962962968E-2</v>
       </c>
-      <c r="D431" s="1"/>
+      <c r="D431" s="4"/>
       <c r="G431" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>388</v>
       </c>
@@ -9427,7 +9430,7 @@
       <c r="C432" s="2">
         <v>3.5092592592592592E-2</v>
       </c>
-      <c r="D432" s="1" t="s">
+      <c r="D432" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E432" s="1" t="s">
@@ -9440,7 +9443,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>389</v>
       </c>
@@ -9450,12 +9453,12 @@
       <c r="C433" s="2">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="D433" s="1"/>
+      <c r="D433" s="4"/>
       <c r="G433" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>390</v>
       </c>
@@ -9465,12 +9468,12 @@
       <c r="C434" s="2">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="D434" s="1"/>
+      <c r="D434" s="4"/>
       <c r="G434" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>391</v>
       </c>
@@ -9480,7 +9483,7 @@
       <c r="C435" s="2">
         <v>6.145833333333333E-3</v>
       </c>
-      <c r="D435" s="1" t="s">
+      <c r="D435" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E435" s="1" t="s">
@@ -9493,7 +9496,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>392</v>
       </c>
@@ -9503,7 +9506,7 @@
       <c r="C436" s="2">
         <v>8.564814814814815E-3</v>
       </c>
-      <c r="D436" s="1" t="s">
+      <c r="D436" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E436" s="1" t="s">
@@ -9516,7 +9519,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>393</v>
       </c>
@@ -9526,7 +9529,7 @@
       <c r="C437" s="2">
         <v>1.0787037037037038E-2</v>
       </c>
-      <c r="D437" s="1" t="s">
+      <c r="D437" s="4" t="s">
         <v>498</v>
       </c>
       <c r="E437" s="1" t="s">
@@ -9539,7 +9542,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>394</v>
       </c>
@@ -9549,12 +9552,12 @@
       <c r="C438" s="2">
         <v>1.2951388888888887E-2</v>
       </c>
-      <c r="D438" s="1"/>
+      <c r="D438" s="4"/>
       <c r="G438" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>395</v>
       </c>
@@ -9564,12 +9567,12 @@
       <c r="C439" s="2">
         <v>1.3796296296296298E-2</v>
       </c>
-      <c r="D439" s="1"/>
+      <c r="D439" s="4"/>
       <c r="G439" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>396</v>
       </c>
@@ -9579,12 +9582,12 @@
       <c r="C440" s="2">
         <v>1.6979166666666667E-2</v>
       </c>
-      <c r="D440" s="1"/>
+      <c r="D440" s="4"/>
       <c r="G440" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>397</v>
       </c>
@@ -9594,7 +9597,7 @@
       <c r="C441" s="2">
         <v>2.1168981481481483E-2</v>
       </c>
-      <c r="D441" s="1" t="s">
+      <c r="D441" s="4" t="s">
         <v>499</v>
       </c>
       <c r="E441" s="1" t="s">
@@ -9607,7 +9610,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>398</v>
       </c>
@@ -9617,12 +9620,12 @@
       <c r="C442" s="2">
         <v>2.480324074074074E-2</v>
       </c>
-      <c r="D442" s="1"/>
+      <c r="D442" s="4"/>
       <c r="G442" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>399</v>
       </c>
@@ -9632,7 +9635,7 @@
       <c r="C443" s="2">
         <v>2.6041666666666668E-2</v>
       </c>
-      <c r="D443" s="1" t="s">
+      <c r="D443" s="4" t="s">
         <v>500</v>
       </c>
       <c r="E443" s="1">
@@ -9645,7 +9648,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>400</v>
       </c>
@@ -9655,7 +9658,7 @@
       <c r="C444" s="2">
         <v>2.8078703703703703E-2</v>
       </c>
-      <c r="D444" s="1" t="s">
+      <c r="D444" s="4" t="s">
         <v>501</v>
       </c>
       <c r="E444" s="1">
@@ -9668,7 +9671,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>399</v>
       </c>
@@ -9678,12 +9681,12 @@
       <c r="C445" s="2">
         <v>3.0393518518518518E-2</v>
       </c>
-      <c r="D445" s="1"/>
+      <c r="D445" s="4"/>
       <c r="G445" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>401</v>
       </c>
@@ -9693,12 +9696,12 @@
       <c r="C446" s="2">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="D446" s="1"/>
+      <c r="D446" s="4"/>
       <c r="G446" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>402</v>
       </c>
@@ -9708,12 +9711,12 @@
       <c r="C447" s="2">
         <v>3.2731481481481479E-2</v>
       </c>
-      <c r="D447" s="1"/>
+      <c r="D447" s="4"/>
       <c r="G447" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>403</v>
       </c>
@@ -9723,12 +9726,12 @@
       <c r="C448" s="2">
         <v>4.8611111111111104E-4</v>
       </c>
-      <c r="D448" s="1"/>
+      <c r="D448" s="4"/>
       <c r="G448" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>404</v>
       </c>
@@ -9738,12 +9741,12 @@
       <c r="C449" s="2">
         <v>5.7870370370370378E-4</v>
       </c>
-      <c r="D449" s="1"/>
+      <c r="D449" s="4"/>
       <c r="G449" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>405</v>
       </c>
@@ -9753,7 +9756,7 @@
       <c r="C450" s="2">
         <v>1.4120370370370369E-3</v>
       </c>
-      <c r="D450" s="1" t="s">
+      <c r="D450" s="4" t="s">
         <v>502</v>
       </c>
       <c r="E450" s="1">
@@ -9766,7 +9769,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>406</v>
       </c>
@@ -9776,12 +9779,12 @@
       <c r="C451" s="2">
         <v>6.4351851851851861E-3</v>
       </c>
-      <c r="D451" s="1"/>
+      <c r="D451" s="4"/>
       <c r="G451" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>407</v>
       </c>
@@ -9791,12 +9794,12 @@
       <c r="C452" s="2">
         <v>9.9074074074074082E-3</v>
       </c>
-      <c r="D452" s="1"/>
+      <c r="D452" s="4"/>
       <c r="G452" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>408</v>
       </c>
@@ -9806,12 +9809,12 @@
       <c r="C453" s="2">
         <v>1.3495370370370371E-2</v>
       </c>
-      <c r="D453" s="1"/>
+      <c r="D453" s="4"/>
       <c r="G453" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>409</v>
       </c>
@@ -9821,12 +9824,12 @@
       <c r="C454" s="2">
         <v>1.7083333333333336E-2</v>
       </c>
-      <c r="D454" s="1"/>
+      <c r="D454" s="4"/>
       <c r="G454" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>403</v>
       </c>
@@ -9836,12 +9839,12 @@
       <c r="C455" s="2">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="D455" s="1"/>
+      <c r="D455" s="4"/>
       <c r="G455" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>404</v>
       </c>
@@ -9851,7 +9854,7 @@
       <c r="C456" s="2">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="D456" s="1" t="s">
+      <c r="D456" s="4" t="s">
         <v>503</v>
       </c>
       <c r="E456" s="1" t="s">
@@ -9864,7 +9867,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>410</v>
       </c>
@@ -9874,12 +9877,12 @@
       <c r="C457" s="2">
         <v>2.148148148148148E-2</v>
       </c>
-      <c r="D457" s="1"/>
+      <c r="D457" s="4"/>
       <c r="G457" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>411</v>
       </c>
@@ -9889,12 +9892,12 @@
       <c r="C458" s="2">
         <v>2.344907407407407E-2</v>
       </c>
-      <c r="D458" s="1"/>
+      <c r="D458" s="4"/>
       <c r="G458" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>412</v>
       </c>
@@ -9904,12 +9907,12 @@
       <c r="C459" s="2">
         <v>2.6759259259259257E-2</v>
       </c>
-      <c r="D459" s="1"/>
+      <c r="D459" s="4"/>
       <c r="G459" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>413</v>
       </c>
@@ -9919,12 +9922,12 @@
       <c r="C460" s="2">
         <v>2.8923611111111108E-2</v>
       </c>
-      <c r="D460" s="1"/>
+      <c r="D460" s="4"/>
       <c r="G460" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>414</v>
       </c>
@@ -9934,12 +9937,12 @@
       <c r="C461" s="2">
         <v>2.9108796296296296E-2</v>
       </c>
-      <c r="D461" s="1"/>
+      <c r="D461" s="4"/>
       <c r="G461" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>415</v>
       </c>
@@ -9949,12 +9952,12 @@
       <c r="C462" s="2">
         <v>2.9861111111111113E-2</v>
       </c>
-      <c r="D462" s="1"/>
+      <c r="D462" s="4"/>
       <c r="G462" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>416</v>
       </c>
@@ -9964,12 +9967,12 @@
       <c r="C463" s="2">
         <v>3.1932870370370368E-2</v>
       </c>
-      <c r="D463" s="1"/>
+      <c r="D463" s="4"/>
       <c r="G463" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>417</v>
       </c>
@@ -9979,12 +9982,12 @@
       <c r="C464" s="2">
         <v>6.6898148148148142E-3</v>
       </c>
-      <c r="D464" s="1"/>
+      <c r="D464" s="4"/>
       <c r="G464" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>418</v>
       </c>
@@ -9994,12 +9997,12 @@
       <c r="C465" s="2">
         <v>1.074074074074074E-2</v>
       </c>
-      <c r="D465" s="1"/>
+      <c r="D465" s="4"/>
       <c r="G465" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>419</v>
       </c>
@@ -10009,12 +10012,12 @@
       <c r="C466" s="2">
         <v>1.5462962962962963E-2</v>
       </c>
-      <c r="D466" s="1"/>
+      <c r="D466" s="4"/>
       <c r="G466" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>420</v>
       </c>
@@ -10024,12 +10027,12 @@
       <c r="C467" s="2">
         <v>2.0462962962962964E-2</v>
       </c>
-      <c r="D467" s="1"/>
+      <c r="D467" s="4"/>
       <c r="G467" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>421</v>
       </c>
@@ -10039,12 +10042,12 @@
       <c r="C468" s="2">
         <v>2.4444444444444446E-2</v>
       </c>
-      <c r="D468" s="1"/>
+      <c r="D468" s="4"/>
       <c r="G468" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>422</v>
       </c>
@@ -10054,12 +10057,12 @@
       <c r="C469" s="2">
         <v>2.7071759259259257E-2</v>
       </c>
-      <c r="D469" s="1"/>
+      <c r="D469" s="4"/>
       <c r="G469" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>423</v>
       </c>
@@ -10069,12 +10072,12 @@
       <c r="C470" s="2">
         <v>3.0648148148148147E-2</v>
       </c>
-      <c r="D470" s="1"/>
+      <c r="D470" s="4"/>
       <c r="G470" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>122</v>
       </c>
@@ -10084,7 +10087,7 @@
       <c r="C471" s="2">
         <v>3.2025462962962964E-2</v>
       </c>
-      <c r="D471" s="1"/>
+      <c r="D471" s="4"/>
       <c r="G471" t="s">
         <v>564</v>
       </c>

--- a/Chem 1A.xlsx
+++ b/Chem 1A.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9300" windowHeight="4740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +28,6 @@
     <t>What We Will Cover</t>
   </si>
   <si>
-    <t>"Fundamentals"</t>
-  </si>
-  <si>
     <t>Significant Figures</t>
   </si>
   <si>
@@ -1734,6 +1727,9 @@
   </si>
   <si>
     <t>MO Theory Practice 2 (revisited)</t>
+  </si>
+  <si>
+    <t>Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -2107,21 +2103,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.109375" style="5"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2133,18 +2129,18 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>568</v>
       </c>
       <c r="B2" s="2">
         <v>1.3310185185185185E-3</v>
@@ -2154,12 +2150,12 @@
       </c>
       <c r="D2" s="4"/>
       <c r="G2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>1.8518518518518517E-3</v>
@@ -2168,15 +2164,15 @@
         <v>4.9537037037037041E-3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>4.9537037037037041E-3</v>
@@ -2186,15 +2182,15 @@
       </c>
       <c r="D4" s="4"/>
       <c r="F4" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>8.1481481481481474E-3</v>
@@ -2203,18 +2199,18 @@
         <v>8.6805555555555559E-3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>8.6805555555555559E-3</v>
@@ -2224,12 +2220,12 @@
       </c>
       <c r="D6" s="4"/>
       <c r="G6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>1.4641203703703703E-2</v>
@@ -2239,12 +2235,12 @@
       </c>
       <c r="D7" s="4"/>
       <c r="G7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>1.5532407407407406E-2</v>
@@ -2254,12 +2250,12 @@
       </c>
       <c r="D8" s="4"/>
       <c r="G8" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>1.744212962962963E-2</v>
@@ -2269,12 +2265,12 @@
       </c>
       <c r="D9" s="4"/>
       <c r="G9" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>1.8124999999999999E-2</v>
@@ -2283,21 +2279,21 @@
         <v>1.8888888888888889E-2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G10" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>1.8888888888888889E-2</v>
@@ -2307,12 +2303,12 @@
       </c>
       <c r="D11" s="4"/>
       <c r="G11" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>1.8958333333333334E-2</v>
@@ -2322,12 +2318,12 @@
       </c>
       <c r="D12" s="4"/>
       <c r="G12" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>2.0266203703703703E-2</v>
@@ -2337,12 +2333,12 @@
       </c>
       <c r="D13" s="4"/>
       <c r="G13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>2.255787037037037E-2</v>
@@ -2351,21 +2347,21 @@
         <v>2.3854166666666666E-2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G14" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>2.3854166666666666E-2</v>
@@ -2374,18 +2370,18 @@
         <v>2.5833333333333333E-2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G15" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>2.5833333333333333E-2</v>
@@ -2395,12 +2391,12 @@
       </c>
       <c r="D16" s="4"/>
       <c r="G16" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>2.6493055555555558E-2</v>
@@ -2410,12 +2406,12 @@
       </c>
       <c r="D17" s="4"/>
       <c r="G17" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>2.6678240740740738E-2</v>
@@ -2425,12 +2421,12 @@
       </c>
       <c r="D18" s="4"/>
       <c r="G18" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>2.704861111111111E-2</v>
@@ -2440,12 +2436,12 @@
       </c>
       <c r="D19" s="4"/>
       <c r="G19" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>2.8101851851851854E-2</v>
@@ -2454,21 +2450,21 @@
         <v>2.9513888888888892E-2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G20" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>2.9513888888888892E-2</v>
@@ -2478,12 +2474,12 @@
       </c>
       <c r="D21" s="4"/>
       <c r="G21" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>3.0185185185185186E-2</v>
@@ -2492,21 +2488,21 @@
         <v>3.1620370370370368E-2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G22" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>3.1620370370370368E-2</v>
@@ -2516,12 +2512,12 @@
       </c>
       <c r="D23" s="4"/>
       <c r="G23" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>3.243055555555556E-2</v>
@@ -2531,12 +2527,12 @@
       </c>
       <c r="D24" s="4"/>
       <c r="G24" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>3.363425925925926E-2</v>
@@ -2545,21 +2541,21 @@
         <v>3.5300925925925923E-2</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G25" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>3.5300925925925923E-2</v>
@@ -2569,12 +2565,12 @@
       </c>
       <c r="D26" s="4"/>
       <c r="G26" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>3.5833333333333335E-2</v>
@@ -2583,21 +2579,21 @@
         <v>3.6527777777777777E-2</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G27" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>3.6527777777777777E-2</v>
@@ -2607,12 +2603,12 @@
       </c>
       <c r="D28" s="4"/>
       <c r="G28" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>4.7453703703703704E-4</v>
@@ -2622,12 +2618,12 @@
       </c>
       <c r="D29" s="4"/>
       <c r="G29" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>7.407407407407407E-4</v>
@@ -2636,21 +2632,21 @@
         <v>3.9351851851851857E-3</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G30" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>3.9351851851851857E-3</v>
@@ -2659,21 +2655,21 @@
         <v>4.363425925925926E-3</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G31" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>4.363425925925926E-3</v>
@@ -2683,12 +2679,12 @@
       </c>
       <c r="D32" s="4"/>
       <c r="G32" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>1.3807870370370371E-2</v>
@@ -2698,12 +2694,12 @@
       </c>
       <c r="D33" s="4"/>
       <c r="G33" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>1.4432870370370372E-2</v>
@@ -2713,12 +2709,12 @@
       </c>
       <c r="D34" s="4"/>
       <c r="G34" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>1.4745370370370372E-2</v>
@@ -2727,21 +2723,21 @@
         <v>1.6261574074074074E-2</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G35" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>1.6261574074074074E-2</v>
@@ -2751,12 +2747,12 @@
       </c>
       <c r="D36" s="4"/>
       <c r="G36" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>1.8831018518518518E-2</v>
@@ -2765,21 +2761,21 @@
         <v>1.9988425925925927E-2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G37" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>1.9988425925925927E-2</v>
@@ -2789,12 +2785,12 @@
       </c>
       <c r="D38" s="4"/>
       <c r="G38" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>2.0381944444444446E-2</v>
@@ -2804,12 +2800,12 @@
       </c>
       <c r="D39" s="4"/>
       <c r="G39" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>3.8564814814814816E-2</v>
@@ -2818,21 +2814,21 @@
         <v>4.0972222222222222E-2</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G40" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>4.0972222222222222E-2</v>
@@ -2842,12 +2838,12 @@
       </c>
       <c r="D41" s="4"/>
       <c r="G41" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>1.9675925925925926E-4</v>
@@ -2857,12 +2853,12 @@
       </c>
       <c r="D42" s="4"/>
       <c r="G42" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>2.4305555555555552E-4</v>
@@ -2872,12 +2868,12 @@
       </c>
       <c r="D43" s="4"/>
       <c r="G43" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>1.2731481481481483E-3</v>
@@ -2887,12 +2883,12 @@
       </c>
       <c r="D44" s="4"/>
       <c r="G44" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>2.2800925925925927E-3</v>
@@ -2902,12 +2898,12 @@
       </c>
       <c r="D45" s="4"/>
       <c r="G45" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>3.5763888888888894E-3</v>
@@ -2919,18 +2915,18 @@
         <v>290</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G46" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>4.2939814814814811E-3</v>
@@ -2939,21 +2935,21 @@
         <v>5.1504629629629635E-3</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G47" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>5.1504629629629635E-3</v>
@@ -2963,12 +2959,12 @@
       </c>
       <c r="D48" s="4"/>
       <c r="G48" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>7.1296296296296307E-3</v>
@@ -2978,12 +2974,12 @@
       </c>
       <c r="D49" s="4"/>
       <c r="G49" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>7.905092592592592E-3</v>
@@ -2992,21 +2988,21 @@
         <v>1.0092592592592592E-2</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G50" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>1.0092592592592592E-2</v>
@@ -3016,12 +3012,12 @@
       </c>
       <c r="D51" s="4"/>
       <c r="G51" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>1.0717592592592593E-2</v>
@@ -3033,18 +3029,18 @@
         <v>293</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G52" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>1.2407407407407409E-2</v>
@@ -3054,12 +3050,12 @@
       </c>
       <c r="D53" s="4"/>
       <c r="G53" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>1.4571759259259258E-2</v>
@@ -3068,21 +3064,21 @@
         <v>1.6342592592592593E-2</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G54" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="2">
         <v>1.6342592592592593E-2</v>
@@ -3091,21 +3087,21 @@
         <v>1.7511574074074072E-2</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G55" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="2">
         <v>1.7511574074074072E-2</v>
@@ -3115,12 +3111,12 @@
       </c>
       <c r="D56" s="4"/>
       <c r="G56" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2">
         <v>1.9351851851851853E-2</v>
@@ -3129,21 +3125,21 @@
         <v>2.1886574074074072E-2</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G57" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="2">
         <v>2.1886574074074072E-2</v>
@@ -3153,12 +3149,12 @@
       </c>
       <c r="D58" s="4"/>
       <c r="G58" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="2">
         <v>2.3831018518518519E-2</v>
@@ -3168,12 +3164,12 @@
       </c>
       <c r="D59" s="4"/>
       <c r="G59" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="2">
         <v>2.4548611111111115E-2</v>
@@ -3183,12 +3179,12 @@
       </c>
       <c r="D60" s="4"/>
       <c r="G60" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="2">
         <v>2.4641203703703703E-2</v>
@@ -3197,21 +3193,21 @@
         <v>2.6620370370370374E-2</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G61" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="2">
         <v>2.6620370370370374E-2</v>
@@ -3221,12 +3217,12 @@
       </c>
       <c r="D62" s="4"/>
       <c r="G62" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="2">
         <v>2.9675925925925925E-2</v>
@@ -3236,12 +3232,12 @@
       </c>
       <c r="D63" s="4"/>
       <c r="G63" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="2">
         <v>2.9837962962962965E-2</v>
@@ -3251,12 +3247,12 @@
       </c>
       <c r="D64" s="4"/>
       <c r="G64" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="2">
         <v>3.6446759259259262E-2</v>
@@ -3266,12 +3262,12 @@
       </c>
       <c r="D65" s="4"/>
       <c r="G65" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="2">
         <v>3.7199074074074072E-2</v>
@@ -3281,12 +3277,12 @@
       </c>
       <c r="D66" s="4"/>
       <c r="G66" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="2">
         <v>2.7777777777777778E-4</v>
@@ -3296,12 +3292,12 @@
       </c>
       <c r="D67" s="4"/>
       <c r="G67" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="2">
         <v>4.3981481481481481E-4</v>
@@ -3311,12 +3307,12 @@
       </c>
       <c r="D68" s="4"/>
       <c r="G68" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="2">
         <v>9.9537037037037042E-4</v>
@@ -3326,12 +3322,12 @@
       </c>
       <c r="D69" s="4"/>
       <c r="G69" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="2">
         <v>2.3379629629629631E-3</v>
@@ -3343,18 +3339,18 @@
         <v>312</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G70" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="2">
         <v>5.1504629629629635E-3</v>
@@ -3364,12 +3360,12 @@
       </c>
       <c r="D71" s="4"/>
       <c r="G71" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="2">
         <v>6.2268518518518515E-3</v>
@@ -3378,21 +3374,21 @@
         <v>7.2685185185185188E-3</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G72" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="2">
         <v>7.2685185185185188E-3</v>
@@ -3404,18 +3400,18 @@
         <v>313</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G73" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="2">
         <v>1.3125E-2</v>
@@ -3424,21 +3420,21 @@
         <v>1.5405092592592593E-2</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G74" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="2">
         <v>1.5405092592592593E-2</v>
@@ -3448,12 +3444,12 @@
       </c>
       <c r="D75" s="4"/>
       <c r="G75" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="2">
         <v>1.8159722222222219E-2</v>
@@ -3462,21 +3458,21 @@
         <v>1.982638888888889E-2</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G76" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2">
         <v>1.982638888888889E-2</v>
@@ -3486,12 +3482,12 @@
       </c>
       <c r="D77" s="4"/>
       <c r="G77" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2">
         <v>2.2152777777777775E-2</v>
@@ -3501,12 +3497,12 @@
       </c>
       <c r="D78" s="4"/>
       <c r="G78" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="2">
         <v>2.2280092592592591E-2</v>
@@ -3516,12 +3512,12 @@
       </c>
       <c r="D79" s="4"/>
       <c r="G79" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="2">
         <v>2.3356481481481482E-2</v>
@@ -3530,21 +3526,21 @@
         <v>2.5659722222222223E-2</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G80" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="2">
         <v>2.5659722222222223E-2</v>
@@ -3554,12 +3550,12 @@
       </c>
       <c r="D81" s="4"/>
       <c r="G81" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="2">
         <v>2.6921296296296294E-2</v>
@@ -3569,12 +3565,12 @@
       </c>
       <c r="D82" s="4"/>
       <c r="G82" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2">
         <v>2.7060185185185187E-2</v>
@@ -3584,12 +3580,12 @@
       </c>
       <c r="D83" s="4"/>
       <c r="G83" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2">
         <v>2.7129629629629632E-2</v>
@@ -3599,12 +3595,12 @@
       </c>
       <c r="D84" s="4"/>
       <c r="G84" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2">
         <v>2.7754629629629629E-2</v>
@@ -3614,12 +3610,12 @@
       </c>
       <c r="D85" s="4"/>
       <c r="G85" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2">
         <v>2.8703703703703703E-2</v>
@@ -3629,12 +3625,12 @@
       </c>
       <c r="D86" s="4"/>
       <c r="G86" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2">
         <v>3.0555555555555555E-2</v>
@@ -3644,12 +3640,12 @@
       </c>
       <c r="D87" s="4"/>
       <c r="G87" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2">
         <v>3.1527777777777773E-2</v>
@@ -3658,21 +3654,21 @@
         <v>3.2395833333333332E-2</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G88" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="2">
         <v>3.2395833333333332E-2</v>
@@ -3682,12 +3678,12 @@
       </c>
       <c r="D89" s="4"/>
       <c r="G89" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2">
         <v>3.2777777777777781E-2</v>
@@ -3697,12 +3693,12 @@
       </c>
       <c r="D90" s="4"/>
       <c r="G90" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2">
         <v>3.3032407407407406E-2</v>
@@ -3712,12 +3708,12 @@
       </c>
       <c r="D91" s="4"/>
       <c r="G91" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2">
         <v>3.3159722222222222E-2</v>
@@ -3727,12 +3723,12 @@
       </c>
       <c r="D92" s="4"/>
       <c r="G92" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2">
         <v>3.4803240740740739E-2</v>
@@ -3742,12 +3738,12 @@
       </c>
       <c r="D93" s="4"/>
       <c r="G93" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2">
         <v>2.3148148148148146E-4</v>
@@ -3757,12 +3753,12 @@
       </c>
       <c r="D94" s="4"/>
       <c r="G94" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2">
         <v>9.4907407407407408E-4</v>
@@ -3772,12 +3768,12 @@
       </c>
       <c r="D95" s="4"/>
       <c r="G95" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2">
         <v>2.685185185185185E-3</v>
@@ -3787,12 +3783,12 @@
       </c>
       <c r="D96" s="4"/>
       <c r="G96" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2">
         <v>3.6921296296296298E-3</v>
@@ -3804,18 +3800,18 @@
         <v>306</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G97" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2">
         <v>6.3773148148148148E-3</v>
@@ -3825,12 +3821,12 @@
       </c>
       <c r="D98" s="4"/>
       <c r="G98" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2">
         <v>9.3981481481481485E-3</v>
@@ -3840,12 +3836,12 @@
       </c>
       <c r="D99" s="4"/>
       <c r="G99" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2">
         <v>1.0856481481481481E-2</v>
@@ -3855,12 +3851,12 @@
       </c>
       <c r="D100" s="4"/>
       <c r="G100" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2">
         <v>1.3194444444444444E-2</v>
@@ -3870,12 +3866,12 @@
       </c>
       <c r="D101" s="4"/>
       <c r="G101" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2">
         <v>1.8229166666666668E-2</v>
@@ -3885,12 +3881,12 @@
       </c>
       <c r="D102" s="4"/>
       <c r="G102" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2">
         <v>1.9293981481481485E-2</v>
@@ -3902,18 +3898,18 @@
         <v>303</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G103" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2">
         <v>2.0381944444444446E-2</v>
@@ -3923,12 +3919,12 @@
       </c>
       <c r="D104" s="4"/>
       <c r="G104" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2">
         <v>2.1539351851851851E-2</v>
@@ -3938,12 +3934,12 @@
       </c>
       <c r="D105" s="4"/>
       <c r="G105" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2">
         <v>2.2465277777777778E-2</v>
@@ -3953,12 +3949,12 @@
       </c>
       <c r="D106" s="4"/>
       <c r="G106" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2">
         <v>2.269675925925926E-2</v>
@@ -3968,12 +3964,12 @@
       </c>
       <c r="D107" s="4"/>
       <c r="G107" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2">
         <v>2.449074074074074E-2</v>
@@ -3983,12 +3979,12 @@
       </c>
       <c r="D108" s="4"/>
       <c r="G108" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B109" s="2">
         <v>2.7152777777777779E-2</v>
@@ -3997,21 +3993,21 @@
         <v>2.7905092592592592E-2</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G109" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2">
         <v>2.7905092592592592E-2</v>
@@ -4021,12 +4017,12 @@
       </c>
       <c r="D110" s="4"/>
       <c r="G110" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2">
         <v>2.9699074074074072E-2</v>
@@ -4036,12 +4032,12 @@
       </c>
       <c r="D111" s="4"/>
       <c r="G111" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B112" s="2">
         <v>3.1030092592592592E-2</v>
@@ -4050,21 +4046,21 @@
         <v>3.2025462962962964E-2</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G112" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2">
         <v>3.2025462962962964E-2</v>
@@ -4076,18 +4072,18 @@
         <v>318</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G113" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2">
         <v>3.2916666666666664E-2</v>
@@ -4097,12 +4093,12 @@
       </c>
       <c r="D114" s="4"/>
       <c r="G114" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2">
         <v>1.8518518518518518E-4</v>
@@ -4111,18 +4107,18 @@
         <v>6.134259259259259E-4</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G115" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2">
         <v>6.134259259259259E-4</v>
@@ -4132,12 +4128,12 @@
       </c>
       <c r="D116" s="4"/>
       <c r="G116" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2">
         <v>7.0601851851851847E-4</v>
@@ -4147,12 +4143,12 @@
       </c>
       <c r="D117" s="4"/>
       <c r="G117" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2">
         <v>1.3425925925925925E-3</v>
@@ -4162,12 +4158,12 @@
       </c>
       <c r="D118" s="4"/>
       <c r="G118" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2">
         <v>2.3032407407407407E-3</v>
@@ -4177,12 +4173,12 @@
       </c>
       <c r="D119" s="4"/>
       <c r="G119" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2">
         <v>2.6388888888888885E-3</v>
@@ -4192,12 +4188,12 @@
       </c>
       <c r="D120" s="4"/>
       <c r="G120" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2">
         <v>2.7314814814814819E-3</v>
@@ -4207,12 +4203,12 @@
       </c>
       <c r="D121" s="4"/>
       <c r="G121" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2">
         <v>3.1249999999999997E-3</v>
@@ -4222,12 +4218,12 @@
       </c>
       <c r="D122" s="4"/>
       <c r="G122" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2">
         <v>4.8726851851851856E-3</v>
@@ -4237,12 +4233,12 @@
       </c>
       <c r="D123" s="4"/>
       <c r="G123" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2">
         <v>6.3541666666666668E-3</v>
@@ -4252,12 +4248,12 @@
       </c>
       <c r="D124" s="4"/>
       <c r="G124" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2">
         <v>7.037037037037037E-3</v>
@@ -4267,12 +4263,12 @@
       </c>
       <c r="D125" s="4"/>
       <c r="G125" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2">
         <v>7.0949074074074074E-3</v>
@@ -4282,12 +4278,12 @@
       </c>
       <c r="D126" s="4"/>
       <c r="G126" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2">
         <v>8.2407407407407412E-3</v>
@@ -4297,12 +4293,12 @@
       </c>
       <c r="D127" s="4"/>
       <c r="G127" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B128" s="2">
         <v>1.0474537037037037E-2</v>
@@ -4312,12 +4308,12 @@
       </c>
       <c r="D128" s="4"/>
       <c r="G128" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2">
         <v>1.2499999999999999E-2</v>
@@ -4329,18 +4325,18 @@
         <v>316</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G129" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2">
         <v>1.4722222222222222E-2</v>
@@ -4349,21 +4345,21 @@
         <v>1.6574074074074074E-2</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G130" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2">
         <v>1.6574074074074074E-2</v>
@@ -4373,12 +4369,12 @@
       </c>
       <c r="D131" s="4"/>
       <c r="G131" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2">
         <v>1.818287037037037E-2</v>
@@ -4388,12 +4384,12 @@
       </c>
       <c r="D132" s="4"/>
       <c r="G132" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2">
         <v>1.9525462962962963E-2</v>
@@ -4405,18 +4401,18 @@
         <v>442</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G133" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B134" s="2">
         <v>2.1006944444444443E-2</v>
@@ -4426,12 +4422,12 @@
       </c>
       <c r="D134" s="4"/>
       <c r="G134" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B135" s="2">
         <v>2.3078703703703702E-2</v>
@@ -4441,12 +4437,12 @@
       </c>
       <c r="D135" s="4"/>
       <c r="G135" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B136" s="2">
         <v>2.5057870370370373E-2</v>
@@ -4455,21 +4451,21 @@
         <v>2.5381944444444443E-2</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G136" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2">
         <v>2.5381944444444443E-2</v>
@@ -4479,12 +4475,12 @@
       </c>
       <c r="D137" s="4"/>
       <c r="G137" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138" s="2">
         <v>2.5983796296296297E-2</v>
@@ -4494,12 +4490,12 @@
       </c>
       <c r="D138" s="4"/>
       <c r="G138" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139" s="2">
         <v>2.6863425925925926E-2</v>
@@ -4509,12 +4505,12 @@
       </c>
       <c r="D139" s="4"/>
       <c r="G139" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2">
         <v>2.7268518518518515E-2</v>
@@ -4524,12 +4520,12 @@
       </c>
       <c r="D140" s="4"/>
       <c r="G140" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B141" s="2">
         <v>2.8125000000000001E-2</v>
@@ -4539,12 +4535,12 @@
       </c>
       <c r="D141" s="4"/>
       <c r="G141" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2">
         <v>2.9456018518518517E-2</v>
@@ -4554,12 +4550,12 @@
       </c>
       <c r="D142" s="4"/>
       <c r="G142" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B143" s="2">
         <v>2.9780092592592594E-2</v>
@@ -4569,12 +4565,12 @@
       </c>
       <c r="D143" s="4"/>
       <c r="G143" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B144" s="2">
         <v>3.0289351851851855E-2</v>
@@ -4584,12 +4580,12 @@
       </c>
       <c r="D144" s="4"/>
       <c r="G144" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B145" s="2">
         <v>3.0335648148148143E-2</v>
@@ -4599,12 +4595,12 @@
       </c>
       <c r="D145" s="4"/>
       <c r="G145" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B146" s="2">
         <v>3.1006944444444445E-2</v>
@@ -4614,12 +4610,12 @@
       </c>
       <c r="D146" s="4"/>
       <c r="G146" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B147" s="2">
         <v>3.1527777777777773E-2</v>
@@ -4629,12 +4625,12 @@
       </c>
       <c r="D147" s="4"/>
       <c r="G147" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B148" s="2">
         <v>3.2141203703703707E-2</v>
@@ -4646,18 +4642,18 @@
         <v>335</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G148" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B149" s="2">
         <v>3.3877314814814811E-2</v>
@@ -4666,21 +4662,21 @@
         <v>3.5636574074074077E-2</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G149" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B150" s="2">
         <v>3.5636574074074077E-2</v>
@@ -4690,12 +4686,12 @@
       </c>
       <c r="D150" s="4"/>
       <c r="G150" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2">
         <v>3.7951388888888889E-2</v>
@@ -4707,18 +4703,18 @@
         <v>336</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G151" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B152" s="2">
         <v>4.0092592592592589E-2</v>
@@ -4728,12 +4724,12 @@
       </c>
       <c r="D152" s="4"/>
       <c r="G152" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2">
         <v>1.9675925925925926E-4</v>
@@ -4743,12 +4739,12 @@
       </c>
       <c r="D153" s="4"/>
       <c r="G153" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2">
         <v>3.3564814814814812E-4</v>
@@ -4758,12 +4754,12 @@
       </c>
       <c r="D154" s="4"/>
       <c r="G154" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B155" s="2">
         <v>3.3564814814814811E-3</v>
@@ -4773,12 +4769,12 @@
       </c>
       <c r="D155" s="4"/>
       <c r="G155" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B156" s="2">
         <v>4.2939814814814811E-3</v>
@@ -4787,21 +4783,21 @@
         <v>5.9375000000000009E-3</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G156" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2">
         <v>5.9375000000000009E-3</v>
@@ -4811,12 +4807,12 @@
       </c>
       <c r="D157" s="4"/>
       <c r="G157" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2">
         <v>8.9583333333333338E-3</v>
@@ -4826,12 +4822,12 @@
       </c>
       <c r="D158" s="4"/>
       <c r="G158" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159" s="2">
         <v>1.3113425925925926E-2</v>
@@ -4841,12 +4837,12 @@
       </c>
       <c r="D159" s="4"/>
       <c r="G159" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B160" s="2">
         <v>1.4733796296296295E-2</v>
@@ -4855,21 +4851,21 @@
         <v>1.5208333333333332E-2</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G160" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2">
         <v>1.5208333333333332E-2</v>
@@ -4879,12 +4875,12 @@
       </c>
       <c r="D161" s="4"/>
       <c r="G161" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2">
         <v>1.7835648148148149E-2</v>
@@ -4894,12 +4890,12 @@
       </c>
       <c r="D162" s="4"/>
       <c r="G162" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B163" s="2">
         <v>1.861111111111111E-2</v>
@@ -4909,12 +4905,12 @@
       </c>
       <c r="D163" s="4"/>
       <c r="G163" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B164" s="2">
         <v>2.162037037037037E-2</v>
@@ -4923,21 +4919,21 @@
         <v>2.34375E-2</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G164" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B165" s="2">
         <v>2.34375E-2</v>
@@ -4947,12 +4943,12 @@
       </c>
       <c r="D165" s="4"/>
       <c r="G165" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B166" s="2">
         <v>2.4027777777777776E-2</v>
@@ -4962,12 +4958,12 @@
       </c>
       <c r="D166" s="4"/>
       <c r="G166" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B167" s="2">
         <v>2.6469907407407411E-2</v>
@@ -4979,18 +4975,18 @@
         <v>356</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G167" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B168" s="2">
         <v>3.0046296296296297E-2</v>
@@ -5000,12 +4996,12 @@
       </c>
       <c r="D168" s="4"/>
       <c r="G168" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B169" s="2">
         <v>2.4305555555555552E-4</v>
@@ -5015,12 +5011,12 @@
       </c>
       <c r="D169" s="4"/>
       <c r="G169" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B170" s="2">
         <v>3.3564814814814812E-4</v>
@@ -5030,12 +5026,12 @@
       </c>
       <c r="D170" s="4"/>
       <c r="G170" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B171" s="2">
         <v>1.0185185185185186E-3</v>
@@ -5045,12 +5041,12 @@
       </c>
       <c r="D171" s="4"/>
       <c r="G171" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B172" s="2">
         <v>1.3541666666666667E-3</v>
@@ -5060,12 +5056,12 @@
       </c>
       <c r="D172" s="4"/>
       <c r="G172" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B173" s="2">
         <v>3.1249999999999997E-3</v>
@@ -5074,21 +5070,21 @@
         <v>4.340277777777778E-3</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G173" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B174" s="2">
         <v>4.340277777777778E-3</v>
@@ -5098,12 +5094,12 @@
       </c>
       <c r="D174" s="4"/>
       <c r="G174" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B175" s="2">
         <v>7.4768518518518526E-3</v>
@@ -5112,21 +5108,21 @@
         <v>8.3101851851851861E-3</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G175" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B176" s="2">
         <v>8.3101851851851861E-3</v>
@@ -5136,12 +5132,12 @@
       </c>
       <c r="D176" s="4"/>
       <c r="G176" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B177" s="2">
         <v>9.2824074074074076E-3</v>
@@ -5151,12 +5147,12 @@
       </c>
       <c r="D177" s="4"/>
       <c r="G177" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B178" s="2">
         <v>9.7222222222222224E-3</v>
@@ -5166,12 +5162,12 @@
       </c>
       <c r="D178" s="4"/>
       <c r="G178" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B179" s="2">
         <v>1.0300925925925927E-2</v>
@@ -5180,21 +5176,21 @@
         <v>1.1157407407407408E-2</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G179" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B180" s="2">
         <v>1.1157407407407408E-2</v>
@@ -5203,21 +5199,21 @@
         <v>1.3321759259259261E-2</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G180" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B181" s="2">
         <v>1.3321759259259261E-2</v>
@@ -5227,12 +5223,12 @@
       </c>
       <c r="D181" s="4"/>
       <c r="G181" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B182" s="2">
         <v>1.3483796296296298E-2</v>
@@ -5242,12 +5238,12 @@
       </c>
       <c r="D182" s="4"/>
       <c r="G182" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B183" s="2">
         <v>1.5069444444444443E-2</v>
@@ -5257,12 +5253,12 @@
       </c>
       <c r="D183" s="4"/>
       <c r="G183" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B184" s="2">
         <v>1.7534722222222222E-2</v>
@@ -5272,12 +5268,12 @@
       </c>
       <c r="D184" s="4"/>
       <c r="G184" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B185" s="2">
         <v>1.90625E-2</v>
@@ -5287,12 +5283,12 @@
       </c>
       <c r="D185" s="4"/>
       <c r="G185" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B186" s="2">
         <v>2.0439814814814817E-2</v>
@@ -5302,12 +5298,12 @@
       </c>
       <c r="D186" s="4"/>
       <c r="G186" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B187" s="2">
         <v>2.2777777777777775E-2</v>
@@ -5316,21 +5312,21 @@
         <v>2.4085648148148148E-2</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G187" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B188" s="2">
         <v>2.4085648148148148E-2</v>
@@ -5340,12 +5336,12 @@
       </c>
       <c r="D188" s="4"/>
       <c r="G188" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B189" s="2">
         <v>2.5173611111111108E-2</v>
@@ -5355,12 +5351,12 @@
       </c>
       <c r="D189" s="4"/>
       <c r="G189" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B190" s="2">
         <v>2.6469907407407411E-2</v>
@@ -5370,12 +5366,12 @@
       </c>
       <c r="D190" s="4"/>
       <c r="G190" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B191" s="2">
         <v>2.75E-2</v>
@@ -5385,12 +5381,12 @@
       </c>
       <c r="D191" s="4"/>
       <c r="G191" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B192" s="2">
         <v>2.8784722222222225E-2</v>
@@ -5400,12 +5396,12 @@
       </c>
       <c r="D192" s="4"/>
       <c r="G192" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B193" s="2">
         <v>3.3761574074074076E-2</v>
@@ -5414,21 +5410,21 @@
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G193" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B194" s="2">
         <v>3.5416666666666666E-2</v>
@@ -5438,12 +5434,12 @@
       </c>
       <c r="D194" s="4"/>
       <c r="G194" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B195" s="2">
         <v>3.6550925925925924E-2</v>
@@ -5453,12 +5449,12 @@
       </c>
       <c r="D195" s="4"/>
       <c r="G195" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B196" s="2">
         <v>3.7870370370370367E-2</v>
@@ -5468,12 +5464,12 @@
       </c>
       <c r="D196" s="4"/>
       <c r="G196" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B197" s="2">
         <v>3.858796296296297E-2</v>
@@ -5483,12 +5479,12 @@
       </c>
       <c r="D197" s="4"/>
       <c r="G197" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B198" s="2">
         <v>1.9675925925925926E-4</v>
@@ -5498,12 +5494,12 @@
       </c>
       <c r="D198" s="4"/>
       <c r="G198" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B199" s="2">
         <v>1.1111111111111111E-3</v>
@@ -5513,12 +5509,12 @@
       </c>
       <c r="D199" s="4"/>
       <c r="G199" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B200" s="2">
         <v>3.472222222222222E-3</v>
@@ -5528,12 +5524,12 @@
       </c>
       <c r="D200" s="4"/>
       <c r="G200" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B201" s="2">
         <v>4.6759259259259263E-3</v>
@@ -5542,21 +5538,21 @@
         <v>5.7754629629629623E-3</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G201" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B202" s="2">
         <v>5.7754629629629623E-3</v>
@@ -5566,12 +5562,12 @@
       </c>
       <c r="D202" s="4"/>
       <c r="G202" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B203" s="2">
         <v>8.4606481481481494E-3</v>
@@ -5581,12 +5577,12 @@
       </c>
       <c r="D203" s="4"/>
       <c r="G203" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B204" s="2">
         <v>1.0046296296296296E-2</v>
@@ -5596,12 +5592,12 @@
       </c>
       <c r="D204" s="4"/>
       <c r="G204" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B205" s="2">
         <v>1.0949074074074075E-2</v>
@@ -5611,12 +5607,12 @@
       </c>
       <c r="D205" s="4"/>
       <c r="G205" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B206" s="2">
         <v>1.1574074074074075E-2</v>
@@ -5626,12 +5622,12 @@
       </c>
       <c r="D206" s="4"/>
       <c r="G206" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B207" s="2">
         <v>1.3900462962962962E-2</v>
@@ -5641,12 +5637,12 @@
       </c>
       <c r="D207" s="4"/>
       <c r="G207" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B208" s="2">
         <v>1.6736111111111111E-2</v>
@@ -5656,12 +5652,12 @@
       </c>
       <c r="D208" s="4"/>
       <c r="G208" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B209" s="2">
         <v>1.9386574074074073E-2</v>
@@ -5671,12 +5667,12 @@
       </c>
       <c r="D209" s="4"/>
       <c r="G209" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B210" s="2">
         <v>2.1180555555555553E-2</v>
@@ -5685,21 +5681,21 @@
         <v>2.164351851851852E-2</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G210" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B211" s="2">
         <v>2.164351851851852E-2</v>
@@ -5709,12 +5705,12 @@
       </c>
       <c r="D211" s="4"/>
       <c r="G211" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B212" s="2">
         <v>2.2604166666666665E-2</v>
@@ -5724,12 +5720,12 @@
       </c>
       <c r="D212" s="4"/>
       <c r="G212" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B213" s="2">
         <v>2.4409722222222222E-2</v>
@@ -5739,12 +5735,12 @@
       </c>
       <c r="D213" s="4"/>
       <c r="G213" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B214" s="2">
         <v>2.6284722222222223E-2</v>
@@ -5754,12 +5750,12 @@
       </c>
       <c r="D214" s="4"/>
       <c r="G214" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B215" s="2">
         <v>2.7847222222222221E-2</v>
@@ -5769,12 +5765,12 @@
       </c>
       <c r="D215" s="4"/>
       <c r="G215" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B216" s="2">
         <v>2.8657407407407406E-2</v>
@@ -5784,12 +5780,12 @@
       </c>
       <c r="D216" s="4"/>
       <c r="G216" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B217" s="2">
         <v>3.0266203703703708E-2</v>
@@ -5799,12 +5795,12 @@
       </c>
       <c r="D217" s="4"/>
       <c r="G217" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B218" s="2">
         <v>3.0891203703703702E-2</v>
@@ -5814,12 +5810,12 @@
       </c>
       <c r="D218" s="4"/>
       <c r="G218" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B219" s="2">
         <v>3.1504629629629625E-2</v>
@@ -5829,12 +5825,12 @@
       </c>
       <c r="D219" s="4"/>
       <c r="G219" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B220" s="2">
         <v>3.2025462962962964E-2</v>
@@ -5844,12 +5840,12 @@
       </c>
       <c r="D220" s="4"/>
       <c r="G220" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B221" s="2">
         <v>3.2581018518518516E-2</v>
@@ -5859,12 +5855,12 @@
       </c>
       <c r="D221" s="4"/>
       <c r="G221" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B222" s="2">
         <v>3.2986111111111112E-2</v>
@@ -5874,12 +5870,12 @@
       </c>
       <c r="D222" s="4"/>
       <c r="G222" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B223" s="2">
         <v>3.3761574074074076E-2</v>
@@ -5889,12 +5885,12 @@
       </c>
       <c r="D223" s="4"/>
       <c r="G223" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B224" s="2">
         <v>3.4236111111111113E-2</v>
@@ -5904,12 +5900,12 @@
       </c>
       <c r="D224" s="4"/>
       <c r="G224" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B225" s="2">
         <v>3.4722222222222224E-2</v>
@@ -5919,12 +5915,12 @@
       </c>
       <c r="D225" s="4"/>
       <c r="G225" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B226" s="2">
         <v>3.5555555555555556E-2</v>
@@ -5934,12 +5930,12 @@
       </c>
       <c r="D226" s="4"/>
       <c r="G226" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B227" s="2">
         <v>3.6018518518518519E-2</v>
@@ -5949,12 +5945,12 @@
       </c>
       <c r="D227" s="4"/>
       <c r="G227" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B228" s="2">
         <v>2.3148148148148146E-4</v>
@@ -5964,12 +5960,12 @@
       </c>
       <c r="D228" s="4"/>
       <c r="G228" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B229" s="2">
         <v>2.7777777777777778E-4</v>
@@ -5979,12 +5975,12 @@
       </c>
       <c r="D229" s="4"/>
       <c r="G229" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B230" s="2">
         <v>1.8055555555555557E-3</v>
@@ -5994,12 +5990,12 @@
       </c>
       <c r="D230" s="4"/>
       <c r="G230" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B231" s="2">
         <v>2.5231481481481481E-3</v>
@@ -6009,12 +6005,12 @@
       </c>
       <c r="D231" s="4"/>
       <c r="G231" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B232" s="2">
         <v>2.5925925925925925E-3</v>
@@ -6024,12 +6020,12 @@
       </c>
       <c r="D232" s="4"/>
       <c r="G232" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B233" s="2">
         <v>3.8078703703703707E-3</v>
@@ -6038,21 +6034,21 @@
         <v>4.4328703703703709E-3</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G233" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B234" s="2">
         <v>4.4328703703703709E-3</v>
@@ -6062,12 +6058,12 @@
       </c>
       <c r="D234" s="4"/>
       <c r="G234" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B235" s="2">
         <v>5.9490740740740745E-3</v>
@@ -6077,12 +6073,12 @@
       </c>
       <c r="D235" s="4"/>
       <c r="G235" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B236" s="2">
         <v>7.4074074074074068E-3</v>
@@ -6092,12 +6088,12 @@
       </c>
       <c r="D236" s="4"/>
       <c r="G236" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B237" s="2">
         <v>8.564814814814815E-3</v>
@@ -6107,12 +6103,12 @@
       </c>
       <c r="D237" s="4"/>
       <c r="G237" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B238" s="2">
         <v>1.1331018518518518E-2</v>
@@ -6122,12 +6118,12 @@
       </c>
       <c r="D238" s="4"/>
       <c r="G238" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B239" s="2">
         <v>1.5092592592592593E-2</v>
@@ -6137,12 +6133,12 @@
       </c>
       <c r="D239" s="4"/>
       <c r="G239" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B240" s="2">
         <v>2.2581018518518518E-2</v>
@@ -6152,12 +6148,12 @@
       </c>
       <c r="D240" s="4"/>
       <c r="G240" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B241" s="2">
         <v>2.6875E-2</v>
@@ -6166,21 +6162,21 @@
         <v>2.7141203703703706E-2</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G241" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B242" s="2">
         <v>2.7141203703703706E-2</v>
@@ -6190,12 +6186,12 @@
       </c>
       <c r="D242" s="4"/>
       <c r="G242" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B243" s="2">
         <v>2.7303240740740743E-2</v>
@@ -6205,12 +6201,12 @@
       </c>
       <c r="D243" s="4"/>
       <c r="G243" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B244" s="2">
         <v>2.8483796296296295E-2</v>
@@ -6220,12 +6216,12 @@
       </c>
       <c r="D244" s="4"/>
       <c r="G244" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B245" s="2">
         <v>3.0601851851851852E-2</v>
@@ -6234,21 +6230,21 @@
         <v>3.1226851851851853E-2</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G245" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B246" s="2">
         <v>3.1226851851851853E-2</v>
@@ -6258,12 +6254,12 @@
       </c>
       <c r="D246" s="4"/>
       <c r="G246" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B247" s="2">
         <v>3.1909722222222221E-2</v>
@@ -6273,12 +6269,12 @@
       </c>
       <c r="D247" s="4"/>
       <c r="G247" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B248" s="2">
         <v>3.2858796296296296E-2</v>
@@ -6287,21 +6283,21 @@
         <v>3.4444444444444444E-2</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G248" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B249" s="2">
         <v>3.4444444444444444E-2</v>
@@ -6311,12 +6307,12 @@
       </c>
       <c r="D249" s="4"/>
       <c r="G249" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B250" s="2">
         <v>1.3888888888888889E-4</v>
@@ -6325,21 +6321,21 @@
         <v>2.7314814814814819E-3</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G250" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B251" s="2">
         <v>2.7314814814814819E-3</v>
@@ -6349,12 +6345,12 @@
       </c>
       <c r="D251" s="4"/>
       <c r="G251" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B252" s="2">
         <v>3.4606481481481485E-3</v>
@@ -6364,12 +6360,12 @@
       </c>
       <c r="D252" s="4"/>
       <c r="G252" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B253" s="2">
         <v>5.8217592592592592E-3</v>
@@ -6379,12 +6375,12 @@
       </c>
       <c r="D253" s="4"/>
       <c r="G253" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B254" s="2">
         <v>7.037037037037037E-3</v>
@@ -6394,12 +6390,12 @@
       </c>
       <c r="D254" s="4"/>
       <c r="G254" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B255" s="2">
         <v>7.0717592592592594E-3</v>
@@ -6408,21 +6404,21 @@
         <v>1.3599537037037037E-2</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G255" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B256" s="2">
         <v>1.3599537037037037E-2</v>
@@ -6432,12 +6428,12 @@
       </c>
       <c r="D256" s="4"/>
       <c r="G256" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B257" s="2">
         <v>1.7569444444444447E-2</v>
@@ -6447,12 +6443,12 @@
       </c>
       <c r="D257" s="4"/>
       <c r="G257" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B258" s="2">
         <v>2.2662037037037036E-2</v>
@@ -6462,12 +6458,12 @@
       </c>
       <c r="D258" s="4"/>
       <c r="G258" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B259" s="2">
         <v>2.8726851851851851E-2</v>
@@ -6477,12 +6473,12 @@
       </c>
       <c r="D259" s="4"/>
       <c r="G259" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B260" s="2">
         <v>2.9594907407407407E-2</v>
@@ -6492,12 +6488,12 @@
       </c>
       <c r="D260" s="4"/>
       <c r="G260" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B261" s="2">
         <v>3.2314814814814817E-2</v>
@@ -6507,12 +6503,12 @@
       </c>
       <c r="D261" s="4"/>
       <c r="G261" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B262" s="2">
         <v>1.0416666666666667E-4</v>
@@ -6522,12 +6518,12 @@
       </c>
       <c r="D262" s="4"/>
       <c r="G262" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B263" s="2">
         <v>9.3750000000000007E-4</v>
@@ -6536,21 +6532,21 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E263" s="1">
         <v>461</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G263" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B264" s="2">
         <v>2.5000000000000001E-3</v>
@@ -6559,21 +6555,21 @@
         <v>4.9768518518518521E-3</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E264" s="1">
         <v>461</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G264" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B265" s="2">
         <v>4.9768518518518521E-3</v>
@@ -6583,12 +6579,12 @@
       </c>
       <c r="D265" s="4"/>
       <c r="G265" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B266" s="2">
         <v>5.4050925925925924E-3</v>
@@ -6598,12 +6594,12 @@
       </c>
       <c r="D266" s="4"/>
       <c r="G266" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B267" s="2">
         <v>5.9143518518518521E-3</v>
@@ -6613,12 +6609,12 @@
       </c>
       <c r="D267" s="4"/>
       <c r="G267" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B268" s="2">
         <v>6.1805555555555563E-3</v>
@@ -6628,12 +6624,12 @@
       </c>
       <c r="D268" s="4"/>
       <c r="G268" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B269" s="2">
         <v>6.4814814814814813E-3</v>
@@ -6643,12 +6639,12 @@
       </c>
       <c r="D269" s="4"/>
       <c r="G269" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B270" s="2">
         <v>6.851851851851852E-3</v>
@@ -6658,12 +6654,12 @@
       </c>
       <c r="D270" s="4"/>
       <c r="G270" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B271" s="2">
         <v>6.9675925925925921E-3</v>
@@ -6673,12 +6669,12 @@
       </c>
       <c r="D271" s="4"/>
       <c r="G271" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B272" s="2">
         <v>7.0486111111111105E-3</v>
@@ -6688,12 +6684,12 @@
       </c>
       <c r="D272" s="4"/>
       <c r="G272" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B273" s="2">
         <v>8.5532407407407415E-3</v>
@@ -6703,12 +6699,12 @@
       </c>
       <c r="D273" s="4"/>
       <c r="G273" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B274" s="2">
         <v>9.9189814814814817E-3</v>
@@ -6717,21 +6713,21 @@
         <v>1.2430555555555554E-2</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G274" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B275" s="2">
         <v>1.2430555555555554E-2</v>
@@ -6740,21 +6736,21 @@
         <v>1.4756944444444446E-2</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G275" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B276" s="2">
         <v>1.4756944444444446E-2</v>
@@ -6764,12 +6760,12 @@
       </c>
       <c r="D276" s="4"/>
       <c r="G276" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B277" s="2">
         <v>1.5625E-2</v>
@@ -6778,21 +6774,21 @@
         <v>1.7349537037037038E-2</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G277" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B278" s="2">
         <v>1.7349537037037038E-2</v>
@@ -6802,12 +6798,12 @@
       </c>
       <c r="D278" s="4"/>
       <c r="G278" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B279" s="2">
         <v>1.7997685185185186E-2</v>
@@ -6816,21 +6812,21 @@
         <v>1.8888888888888889E-2</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G279" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B280" s="2">
         <v>1.8888888888888889E-2</v>
@@ -6840,12 +6836,12 @@
       </c>
       <c r="D280" s="4"/>
       <c r="G280" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B281" s="2">
         <v>1.9398148148148147E-2</v>
@@ -6854,21 +6850,21 @@
         <v>2.0416666666666666E-2</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G281" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B282" s="2">
         <v>2.0416666666666666E-2</v>
@@ -6877,21 +6873,21 @@
         <v>2.2141203703703705E-2</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G282" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B283" s="2">
         <v>2.2141203703703705E-2</v>
@@ -6901,12 +6897,12 @@
       </c>
       <c r="D283" s="4"/>
       <c r="G283" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B284" s="2">
         <v>2.2777777777777775E-2</v>
@@ -6916,12 +6912,12 @@
       </c>
       <c r="D284" s="4"/>
       <c r="G284" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B285" s="2">
         <v>2.4074074074074071E-2</v>
@@ -6931,12 +6927,12 @@
       </c>
       <c r="D285" s="4"/>
       <c r="G285" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B286" s="2">
         <v>2.4722222222222225E-2</v>
@@ -6946,12 +6942,12 @@
       </c>
       <c r="D286" s="4"/>
       <c r="G286" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B287" s="2">
         <v>2.5937500000000002E-2</v>
@@ -6960,21 +6956,21 @@
         <v>2.8078703703703703E-2</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G287" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B288" s="2">
         <v>2.8078703703703703E-2</v>
@@ -6984,12 +6980,12 @@
       </c>
       <c r="D288" s="4"/>
       <c r="G288" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B289" s="2">
         <v>2.8935185185185185E-2</v>
@@ -6999,12 +6995,12 @@
       </c>
       <c r="D289" s="4"/>
       <c r="G289" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B290" s="2">
         <v>3.0775462962962966E-2</v>
@@ -7014,12 +7010,12 @@
       </c>
       <c r="D290" s="4"/>
       <c r="G290" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B291" s="2">
         <v>3.24537037037037E-2</v>
@@ -7029,12 +7025,12 @@
       </c>
       <c r="D291" s="4"/>
       <c r="G291" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B292" s="2">
         <v>3.2847222222222222E-2</v>
@@ -7044,12 +7040,12 @@
       </c>
       <c r="D292" s="4"/>
       <c r="G292" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B293" s="2">
         <v>1.5046296296296297E-4</v>
@@ -7058,21 +7054,21 @@
         <v>4.8611111111111104E-4</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G293" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B294" s="2">
         <v>4.8611111111111104E-4</v>
@@ -7082,12 +7078,12 @@
       </c>
       <c r="D294" s="4"/>
       <c r="G294" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B295" s="2">
         <v>3.2407407407407406E-3</v>
@@ -7097,12 +7093,12 @@
       </c>
       <c r="D295" s="4"/>
       <c r="G295" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B296" s="2">
         <v>6.7708333333333336E-3</v>
@@ -7112,12 +7108,12 @@
       </c>
       <c r="D296" s="4"/>
       <c r="G296" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B297" s="2">
         <v>9.571759259259259E-3</v>
@@ -7127,12 +7123,12 @@
       </c>
       <c r="D297" s="4"/>
       <c r="G297" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B298" s="2">
         <v>1.5046296296296295E-2</v>
@@ -7142,12 +7138,12 @@
       </c>
       <c r="D298" s="4"/>
       <c r="G298" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B299" s="2">
         <v>1.6481481481481482E-2</v>
@@ -7157,12 +7153,12 @@
       </c>
       <c r="D299" s="4"/>
       <c r="G299" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B300" s="2">
         <v>1.7754629629629631E-2</v>
@@ -7172,12 +7168,12 @@
       </c>
       <c r="D300" s="4"/>
       <c r="G300" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B301" s="2">
         <v>1.8402777777777778E-2</v>
@@ -7187,12 +7183,12 @@
       </c>
       <c r="D301" s="4"/>
       <c r="G301" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B302" s="2">
         <v>1.9143518518518518E-2</v>
@@ -7202,12 +7198,12 @@
       </c>
       <c r="D302" s="4"/>
       <c r="G302" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B303" s="2">
         <v>1.9525462962962963E-2</v>
@@ -7217,12 +7213,12 @@
       </c>
       <c r="D303" s="4"/>
       <c r="G303" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B304" s="2">
         <v>2.0474537037037038E-2</v>
@@ -7232,12 +7228,12 @@
       </c>
       <c r="D304" s="4"/>
       <c r="G304" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B305" s="2">
         <v>2.1168981481481483E-2</v>
@@ -7247,12 +7243,12 @@
       </c>
       <c r="D305" s="4"/>
       <c r="G305" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B306" s="2">
         <v>2.2407407407407407E-2</v>
@@ -7262,12 +7258,12 @@
       </c>
       <c r="D306" s="4"/>
       <c r="G306" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B307" s="2">
         <v>2.3182870370370371E-2</v>
@@ -7277,12 +7273,12 @@
       </c>
       <c r="D307" s="4"/>
       <c r="G307" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B308" s="2">
         <v>2.3784722222222221E-2</v>
@@ -7292,12 +7288,12 @@
       </c>
       <c r="D308" s="4"/>
       <c r="G308" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B309" s="2">
         <v>2.4525462962962968E-2</v>
@@ -7307,12 +7303,12 @@
       </c>
       <c r="D309" s="4"/>
       <c r="G309" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B310" s="2">
         <v>2.5578703703703704E-2</v>
@@ -7322,12 +7318,12 @@
       </c>
       <c r="D310" s="4"/>
       <c r="G310" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B311" s="2">
         <v>2.6296296296296293E-2</v>
@@ -7337,12 +7333,12 @@
       </c>
       <c r="D311" s="4"/>
       <c r="G311" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B312" s="2">
         <v>2.7719907407407405E-2</v>
@@ -7352,12 +7348,12 @@
       </c>
       <c r="D312" s="4"/>
       <c r="G312" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B313" s="2">
         <v>2.8344907407407412E-2</v>
@@ -7366,21 +7362,21 @@
         <v>3.0046296296296297E-2</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G313" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B314" s="2">
         <v>3.0046296296296297E-2</v>
@@ -7392,18 +7388,18 @@
         <v>444</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G314" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B315" s="2">
         <v>3.123842592592593E-2</v>
@@ -7412,21 +7408,21 @@
         <v>3.1331018518518515E-2</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G315" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B316" s="2">
         <v>3.1331018518518515E-2</v>
@@ -7436,12 +7432,12 @@
       </c>
       <c r="D316" s="4"/>
       <c r="G316" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B317" s="2">
         <v>1.1574074074074073E-4</v>
@@ -7451,12 +7447,12 @@
       </c>
       <c r="D317" s="4"/>
       <c r="G317" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B318" s="2">
         <v>9.4907407407407408E-4</v>
@@ -7468,18 +7464,18 @@
         <v>444</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G318" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B319" s="2">
         <v>1.8750000000000001E-3</v>
@@ -7489,12 +7485,12 @@
       </c>
       <c r="D319" s="4"/>
       <c r="G319" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B320" s="2">
         <v>2.1412037037037038E-3</v>
@@ -7504,12 +7500,12 @@
       </c>
       <c r="D320" s="4"/>
       <c r="G320" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B321" s="2">
         <v>2.7662037037037034E-3</v>
@@ -7521,18 +7517,18 @@
         <v>444</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G321" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B322" s="2">
         <v>4.2129629629629626E-3</v>
@@ -7541,21 +7537,21 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G322" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B323" s="2">
         <v>7.1874999999999994E-3</v>
@@ -7564,21 +7560,21 @@
         <v>8.726851851851852E-3</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G323" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B324" s="2">
         <v>8.726851851851852E-3</v>
@@ -7588,12 +7584,12 @@
       </c>
       <c r="D324" s="4"/>
       <c r="G324" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B325" s="2">
         <v>1.1481481481481483E-2</v>
@@ -7602,21 +7598,21 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G325" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B326" s="2">
         <v>1.3194444444444444E-2</v>
@@ -7626,12 +7622,12 @@
       </c>
       <c r="D326" s="4"/>
       <c r="G326" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B327" s="2">
         <v>1.4814814814814814E-2</v>
@@ -7643,18 +7639,18 @@
         <v>453</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G327" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B328" s="2">
         <v>1.5972222222222224E-2</v>
@@ -7664,12 +7660,12 @@
       </c>
       <c r="D328" s="4"/>
       <c r="G328" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B329" s="2">
         <v>1.6307870370370372E-2</v>
@@ -7679,12 +7675,12 @@
       </c>
       <c r="D329" s="4"/>
       <c r="G329" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B330" s="2">
         <v>2.5127314814814811E-2</v>
@@ -7694,12 +7690,12 @@
       </c>
       <c r="D330" s="4"/>
       <c r="G330" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B331" s="2">
         <v>2.6655092592592591E-2</v>
@@ -7709,12 +7705,12 @@
       </c>
       <c r="D331" s="4"/>
       <c r="G331" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B332" s="2">
         <v>3.0810185185185187E-2</v>
@@ -7723,21 +7719,21 @@
         <v>3.3148148148148149E-2</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G332" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B333" s="2">
         <v>3.3148148148148149E-2</v>
@@ -7747,12 +7743,12 @@
       </c>
       <c r="D333" s="4"/>
       <c r="G333" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B334" s="2">
         <v>2.0833333333333335E-4</v>
@@ -7762,12 +7758,12 @@
       </c>
       <c r="D334" s="4"/>
       <c r="G334" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B335" s="2">
         <v>7.5694444444444446E-3</v>
@@ -7776,21 +7772,21 @@
         <v>8.4143518518518517E-3</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G335" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B336" s="2">
         <v>8.4143518518518517E-3</v>
@@ -7800,12 +7796,12 @@
       </c>
       <c r="D336" s="4"/>
       <c r="G336" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B337" s="2">
         <v>8.9814814814814809E-3</v>
@@ -7815,12 +7811,12 @@
       </c>
       <c r="D337" s="4"/>
       <c r="G337" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B338" s="2">
         <v>1.4039351851851851E-2</v>
@@ -7830,12 +7826,12 @@
       </c>
       <c r="D338" s="4"/>
       <c r="G338" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B339" s="2">
         <v>1.4317129629629631E-2</v>
@@ -7845,12 +7841,12 @@
       </c>
       <c r="D339" s="4"/>
       <c r="G339" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B340" s="2">
         <v>1.5636574074074074E-2</v>
@@ -7860,12 +7856,12 @@
       </c>
       <c r="D340" s="4"/>
       <c r="G340" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B341" s="2">
         <v>1.8090277777777778E-2</v>
@@ -7875,12 +7871,12 @@
       </c>
       <c r="D341" s="4"/>
       <c r="G341" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B342" s="2">
         <v>1.894675925925926E-2</v>
@@ -7890,12 +7886,12 @@
       </c>
       <c r="D342" s="4"/>
       <c r="G342" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B343" s="2">
         <v>1.9444444444444445E-2</v>
@@ -7905,12 +7901,12 @@
       </c>
       <c r="D343" s="4"/>
       <c r="G343" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B344" s="2">
         <v>2.045138888888889E-2</v>
@@ -7920,12 +7916,12 @@
       </c>
       <c r="D344" s="4"/>
       <c r="G344" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B345" s="2">
         <v>2.1689814814814815E-2</v>
@@ -7934,21 +7930,21 @@
         <v>2.3344907407407408E-2</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G345" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B346" s="2">
         <v>2.3344907407407408E-2</v>
@@ -7960,18 +7956,18 @@
         <v>542</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G346" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B347" s="2">
         <v>2.5347222222222219E-2</v>
@@ -7981,12 +7977,12 @@
       </c>
       <c r="D347" s="4"/>
       <c r="G347" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B348" s="2">
         <v>2.5810185185185183E-2</v>
@@ -7995,21 +7991,21 @@
         <v>2.8773148148148145E-2</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G348" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B349" s="2">
         <v>2.8773148148148145E-2</v>
@@ -8019,12 +8015,12 @@
       </c>
       <c r="D349" s="4"/>
       <c r="G349" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B350" s="2">
         <v>2.9560185185185189E-2</v>
@@ -8034,12 +8030,12 @@
       </c>
       <c r="D350" s="4"/>
       <c r="G350" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B351" s="2">
         <v>2.9675925925925925E-2</v>
@@ -8049,12 +8045,12 @@
       </c>
       <c r="D351" s="4"/>
       <c r="G351" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B352" s="2">
         <v>3.0462962962962966E-2</v>
@@ -8064,12 +8060,12 @@
       </c>
       <c r="D352" s="4"/>
       <c r="G352" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B353" s="2">
         <v>2.5462962962962961E-4</v>
@@ -8079,12 +8075,12 @@
       </c>
       <c r="D353" s="4"/>
       <c r="G353" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B354" s="2">
         <v>1.3541666666666667E-3</v>
@@ -8094,12 +8090,12 @@
       </c>
       <c r="D354" s="4"/>
       <c r="G354" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B355" s="2">
         <v>2.0370370370370373E-3</v>
@@ -8108,21 +8104,21 @@
         <v>6.1342592592592594E-3</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G355" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B356" s="2">
         <v>6.1342592592592594E-3</v>
@@ -8131,21 +8127,21 @@
         <v>6.9097222222222225E-3</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G356" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B357" s="2">
         <v>6.9097222222222225E-3</v>
@@ -8157,18 +8153,18 @@
         <v>537</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G357" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B358" s="2">
         <v>8.3680555555555557E-3</v>
@@ -8178,12 +8174,12 @@
       </c>
       <c r="D358" s="4"/>
       <c r="G358" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B359" s="2">
         <v>1.0787037037037038E-2</v>
@@ -8193,12 +8189,12 @@
       </c>
       <c r="D359" s="4"/>
       <c r="G359" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B360" s="2">
         <v>1.1574074074074075E-2</v>
@@ -8208,12 +8204,12 @@
       </c>
       <c r="D360" s="4"/>
       <c r="G360" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B361" s="2">
         <v>1.1944444444444445E-2</v>
@@ -8223,12 +8219,12 @@
       </c>
       <c r="D361" s="4"/>
       <c r="G361" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B362" s="2">
         <v>1.292824074074074E-2</v>
@@ -8238,12 +8234,12 @@
       </c>
       <c r="D362" s="4"/>
       <c r="G362" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B363" s="2">
         <v>1.462962962962963E-2</v>
@@ -8253,12 +8249,12 @@
       </c>
       <c r="D363" s="4"/>
       <c r="G363" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B364" s="2">
         <v>1.5416666666666667E-2</v>
@@ -8268,12 +8264,12 @@
       </c>
       <c r="D364" s="4"/>
       <c r="G364" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B365" s="2">
         <v>1.5740740740740743E-2</v>
@@ -8283,12 +8279,12 @@
       </c>
       <c r="D365" s="4"/>
       <c r="G365" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B366" s="2">
         <v>1.7187499999999998E-2</v>
@@ -8298,12 +8294,12 @@
       </c>
       <c r="D366" s="4"/>
       <c r="G366" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B367" s="2">
         <v>1.9606481481481482E-2</v>
@@ -8313,12 +8309,12 @@
       </c>
       <c r="D367" s="4"/>
       <c r="G367" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B368" s="2">
         <v>2.0335648148148148E-2</v>
@@ -8328,12 +8324,12 @@
       </c>
       <c r="D368" s="4"/>
       <c r="G368" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B369" s="2">
         <v>2.1006944444444443E-2</v>
@@ -8343,12 +8339,12 @@
       </c>
       <c r="D369" s="4"/>
       <c r="G369" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B370" s="2">
         <v>2.1562499999999998E-2</v>
@@ -8358,12 +8354,12 @@
       </c>
       <c r="D370" s="4"/>
       <c r="G370" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B371" s="2">
         <v>2.2337962962962962E-2</v>
@@ -8372,21 +8368,21 @@
         <v>2.2627314814814819E-2</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G371" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B372" s="2">
         <v>2.2627314814814819E-2</v>
@@ -8396,12 +8392,12 @@
       </c>
       <c r="D372" s="4"/>
       <c r="G372" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B373" s="2">
         <v>2.3935185185185184E-2</v>
@@ -8413,18 +8409,18 @@
         <v>556</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G373" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B374" s="2">
         <v>2.5150462962962961E-2</v>
@@ -8434,12 +8430,12 @@
       </c>
       <c r="D374" s="4"/>
       <c r="G374" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B375" s="2">
         <v>2.5451388888888888E-2</v>
@@ -8451,18 +8447,18 @@
         <v>560</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G375" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B376" s="2">
         <v>2.9513888888888892E-2</v>
@@ -8472,12 +8468,12 @@
       </c>
       <c r="D376" s="4"/>
       <c r="G376" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B377" s="2">
         <v>3.1030092592592592E-2</v>
@@ -8487,12 +8483,12 @@
       </c>
       <c r="D377" s="4"/>
       <c r="G377" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B378" s="2">
         <v>3.1215277777777783E-2</v>
@@ -8502,12 +8498,12 @@
       </c>
       <c r="D378" s="4"/>
       <c r="G378" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B379" s="2">
         <v>3.1354166666666662E-2</v>
@@ -8517,12 +8513,12 @@
       </c>
       <c r="D379" s="4"/>
       <c r="G379" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B380" s="2">
         <v>3.3506944444444443E-2</v>
@@ -8532,12 +8528,12 @@
       </c>
       <c r="D380" s="4"/>
       <c r="G380" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B381" s="2">
         <v>3.3865740740740738E-2</v>
@@ -8547,12 +8543,12 @@
       </c>
       <c r="D381" s="4"/>
       <c r="G381" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B382" s="2">
         <v>2.3148148148148146E-4</v>
@@ -8562,12 +8558,12 @@
       </c>
       <c r="D382" s="4"/>
       <c r="G382" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B383" s="2">
         <v>5.3240740740740744E-4</v>
@@ -8576,21 +8572,21 @@
         <v>2.7083333333333334E-3</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G383" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B384" s="2">
         <v>2.7083333333333334E-3</v>
@@ -8600,12 +8596,12 @@
       </c>
       <c r="D384" s="4"/>
       <c r="G384" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B385" s="2">
         <v>3.6689814814814814E-3</v>
@@ -8615,12 +8611,12 @@
       </c>
       <c r="D385" s="4"/>
       <c r="G385" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B386" s="2">
         <v>4.5370370370370365E-3</v>
@@ -8630,12 +8626,12 @@
       </c>
       <c r="D386" s="4"/>
       <c r="G386" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B387" s="2">
         <v>5.2546296296296299E-3</v>
@@ -8645,12 +8641,12 @@
       </c>
       <c r="D387" s="4"/>
       <c r="G387" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B388" s="2">
         <v>2.4976851851851851E-2</v>
@@ -8660,12 +8656,12 @@
       </c>
       <c r="D388" s="4"/>
       <c r="G388" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B389" s="2">
         <v>3.0543981481481481E-2</v>
@@ -8675,12 +8671,12 @@
       </c>
       <c r="D389" s="4"/>
       <c r="G389" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B390" s="2">
         <v>3.1597222222222221E-2</v>
@@ -8690,12 +8686,12 @@
       </c>
       <c r="D390" s="4"/>
       <c r="G390" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B391" s="2">
         <v>1.3888888888888889E-4</v>
@@ -8705,12 +8701,12 @@
       </c>
       <c r="D391" s="4"/>
       <c r="G391" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B392" s="2">
         <v>1.5046296296296297E-4</v>
@@ -8720,12 +8716,12 @@
       </c>
       <c r="D392" s="4"/>
       <c r="G392" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B393" s="2">
         <v>1.7013888888888892E-3</v>
@@ -8735,12 +8731,12 @@
       </c>
       <c r="D393" s="4"/>
       <c r="G393" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B394" s="2">
         <v>4.4675925925925933E-3</v>
@@ -8749,21 +8745,21 @@
         <v>5.1504629629629635E-3</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G394" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B395" s="2">
         <v>5.1504629629629635E-3</v>
@@ -8775,18 +8771,18 @@
         <v>471</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G395" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B396" s="2">
         <v>5.208333333333333E-3</v>
@@ -8796,12 +8792,12 @@
       </c>
       <c r="D396" s="4"/>
       <c r="G396" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B397" s="2">
         <v>5.5787037037037038E-3</v>
@@ -8811,12 +8807,12 @@
       </c>
       <c r="D397" s="4"/>
       <c r="G397" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B398" s="2">
         <v>7.3379629629629628E-3</v>
@@ -8828,18 +8824,18 @@
         <v>472</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G398" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B399" s="2">
         <v>7.3726851851851861E-3</v>
@@ -8849,12 +8845,12 @@
       </c>
       <c r="D399" s="4"/>
       <c r="G399" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B400" s="2">
         <v>9.3518518518518525E-3</v>
@@ -8864,12 +8860,12 @@
       </c>
       <c r="D400" s="4"/>
       <c r="G400" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B401" s="2">
         <v>9.5023148148148159E-3</v>
@@ -8879,12 +8875,12 @@
       </c>
       <c r="D401" s="4"/>
       <c r="G401" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B402" s="2">
         <v>1.0011574074074074E-2</v>
@@ -8894,12 +8890,12 @@
       </c>
       <c r="D402" s="4"/>
       <c r="G402" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B403" s="2">
         <v>1.3368055555555557E-2</v>
@@ -8909,12 +8905,12 @@
       </c>
       <c r="D403" s="4"/>
       <c r="G403" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B404" s="2">
         <v>1.5381944444444443E-2</v>
@@ -8923,21 +8919,21 @@
         <v>1.7291666666666667E-2</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G404" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B405" s="2">
         <v>1.7291666666666667E-2</v>
@@ -8947,12 +8943,12 @@
       </c>
       <c r="D405" s="4"/>
       <c r="G405" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B406" s="2">
         <v>1.8078703703703704E-2</v>
@@ -8961,21 +8957,21 @@
         <v>2.1157407407407406E-2</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G406" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B407" s="2">
         <v>2.1157407407407406E-2</v>
@@ -8985,12 +8981,12 @@
       </c>
       <c r="D407" s="4"/>
       <c r="G407" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B408" s="2">
         <v>2.1863425925925925E-2</v>
@@ -9000,12 +8996,12 @@
       </c>
       <c r="D408" s="4"/>
       <c r="G408" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B409" s="2">
         <v>2.3136574074074077E-2</v>
@@ -9017,18 +9013,18 @@
         <v>486</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G409" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B410" s="2">
         <v>2.4664351851851851E-2</v>
@@ -9038,12 +9034,12 @@
       </c>
       <c r="D410" s="4"/>
       <c r="G410" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B411" s="2">
         <v>2.5717592592592594E-2</v>
@@ -9053,12 +9049,12 @@
       </c>
       <c r="D411" s="4"/>
       <c r="G411" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B412" s="2">
         <v>2.6446759259259264E-2</v>
@@ -9067,21 +9063,21 @@
         <v>2.9155092592592594E-2</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G412" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B413" s="2">
         <v>2.9155092592592594E-2</v>
@@ -9091,12 +9087,12 @@
       </c>
       <c r="D413" s="4"/>
       <c r="G413" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B414" s="2">
         <v>1.7361111111111112E-4</v>
@@ -9105,21 +9101,21 @@
         <v>4.5370370370370365E-3</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G414" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B415" s="2">
         <v>4.5370370370370365E-3</v>
@@ -9128,21 +9124,21 @@
         <v>5.1273148148148146E-3</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G415" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B416" s="2">
         <v>5.1273148148148146E-3</v>
@@ -9152,12 +9148,12 @@
       </c>
       <c r="D416" s="4"/>
       <c r="G416" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B417" s="2">
         <v>8.3796296296296292E-3</v>
@@ -9167,12 +9163,12 @@
       </c>
       <c r="D417" s="4"/>
       <c r="G417" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B418" s="2">
         <v>1.34375E-2</v>
@@ -9182,12 +9178,12 @@
       </c>
       <c r="D418" s="4"/>
       <c r="G418" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B419" s="2">
         <v>1.6944444444444443E-2</v>
@@ -9197,12 +9193,12 @@
       </c>
       <c r="D419" s="4"/>
       <c r="G419" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B420" s="2">
         <v>2.2685185185185183E-2</v>
@@ -9211,21 +9207,21 @@
         <v>2.388888888888889E-2</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G420" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B421" s="2">
         <v>2.388888888888889E-2</v>
@@ -9234,21 +9230,21 @@
         <v>2.5439814814814814E-2</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G421" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B422" s="2">
         <v>2.5439814814814814E-2</v>
@@ -9258,12 +9254,12 @@
       </c>
       <c r="D422" s="4"/>
       <c r="G422" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B423" s="2">
         <v>3.0902777777777779E-2</v>
@@ -9272,21 +9268,21 @@
         <v>3.1759259259259258E-2</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G423" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B424" s="2">
         <v>3.1759259259259258E-2</v>
@@ -9296,12 +9292,12 @@
       </c>
       <c r="D424" s="4"/>
       <c r="G424" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B425" s="2">
         <v>2.6620370370370372E-4</v>
@@ -9311,12 +9307,12 @@
       </c>
       <c r="D425" s="4"/>
       <c r="G425" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B426" s="2">
         <v>1.0532407407407407E-3</v>
@@ -9326,12 +9322,12 @@
       </c>
       <c r="D426" s="4"/>
       <c r="G426" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B427" s="2">
         <v>1.8865740740740742E-3</v>
@@ -9340,21 +9336,21 @@
         <v>3.2523148148148151E-3</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G427" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B428" s="2">
         <v>3.2523148148148151E-3</v>
@@ -9364,12 +9360,12 @@
       </c>
       <c r="D428" s="4"/>
       <c r="G428" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B429" s="2">
         <v>5.0115740740740737E-3</v>
@@ -9379,12 +9375,12 @@
       </c>
       <c r="D429" s="4"/>
       <c r="G429" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B430" s="2">
         <v>9.4097222222222238E-3</v>
@@ -9393,21 +9389,21 @@
         <v>2.0127314814814817E-2</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G430" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B431" s="2">
         <v>2.0127314814814817E-2</v>
@@ -9417,12 +9413,12 @@
       </c>
       <c r="D431" s="4"/>
       <c r="G431" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B432" s="2">
         <v>2.4525462962962968E-2</v>
@@ -9431,21 +9427,21 @@
         <v>3.5092592592592592E-2</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G432" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B433" s="2">
         <v>2.199074074074074E-4</v>
@@ -9455,12 +9451,12 @@
       </c>
       <c r="D433" s="4"/>
       <c r="G433" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B434" s="2">
         <v>2.7777777777777778E-4</v>
@@ -9470,12 +9466,12 @@
       </c>
       <c r="D434" s="4"/>
       <c r="G434" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B435" s="2">
         <v>3.2407407407407406E-4</v>
@@ -9484,21 +9480,21 @@
         <v>6.145833333333333E-3</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G435" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B436" s="2">
         <v>6.145833333333333E-3</v>
@@ -9507,21 +9503,21 @@
         <v>8.564814814814815E-3</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G436" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B437" s="2">
         <v>8.564814814814815E-3</v>
@@ -9530,21 +9526,21 @@
         <v>1.0787037037037038E-2</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G437" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B438" s="2">
         <v>1.0787037037037038E-2</v>
@@ -9554,12 +9550,12 @@
       </c>
       <c r="D438" s="4"/>
       <c r="G438" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B439" s="2">
         <v>1.2951388888888887E-2</v>
@@ -9569,12 +9565,12 @@
       </c>
       <c r="D439" s="4"/>
       <c r="G439" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B440" s="2">
         <v>1.3796296296296298E-2</v>
@@ -9584,12 +9580,12 @@
       </c>
       <c r="D440" s="4"/>
       <c r="G440" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B441" s="2">
         <v>1.6979166666666667E-2</v>
@@ -9598,21 +9594,21 @@
         <v>2.1168981481481483E-2</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G441" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B442" s="2">
         <v>2.1168981481481483E-2</v>
@@ -9622,12 +9618,12 @@
       </c>
       <c r="D442" s="4"/>
       <c r="G442" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B443" s="2">
         <v>2.480324074074074E-2</v>
@@ -9636,21 +9632,21 @@
         <v>2.6041666666666668E-2</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E443" s="1">
         <v>528</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G443" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B444" s="2">
         <v>2.6041666666666668E-2</v>
@@ -9659,21 +9655,21 @@
         <v>2.8078703703703703E-2</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E444" s="1">
         <v>528</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G444" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B445" s="2">
         <v>2.8078703703703703E-2</v>
@@ -9683,12 +9679,12 @@
       </c>
       <c r="D445" s="4"/>
       <c r="G445" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B446" s="2">
         <v>3.0393518518518518E-2</v>
@@ -9698,12 +9694,12 @@
       </c>
       <c r="D446" s="4"/>
       <c r="G446" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B447" s="2">
         <v>3.0555555555555555E-2</v>
@@ -9713,12 +9709,12 @@
       </c>
       <c r="D447" s="4"/>
       <c r="G447" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B448" s="2">
         <v>1.7361111111111112E-4</v>
@@ -9728,12 +9724,12 @@
       </c>
       <c r="D448" s="4"/>
       <c r="G448" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B449" s="2">
         <v>4.8611111111111104E-4</v>
@@ -9743,12 +9739,12 @@
       </c>
       <c r="D449" s="4"/>
       <c r="G449" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B450" s="2">
         <v>5.7870370370370378E-4</v>
@@ -9757,21 +9753,21 @@
         <v>1.4120370370370369E-3</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E450" s="1">
         <v>528</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G450" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B451" s="2">
         <v>1.4120370370370369E-3</v>
@@ -9781,12 +9777,12 @@
       </c>
       <c r="D451" s="4"/>
       <c r="G451" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B452" s="2">
         <v>6.4351851851851861E-3</v>
@@ -9796,12 +9792,12 @@
       </c>
       <c r="D452" s="4"/>
       <c r="G452" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B453" s="2">
         <v>9.9074074074074082E-3</v>
@@ -9811,12 +9807,12 @@
       </c>
       <c r="D453" s="4"/>
       <c r="G453" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B454" s="2">
         <v>1.3495370370370371E-2</v>
@@ -9826,12 +9822,12 @@
       </c>
       <c r="D454" s="4"/>
       <c r="G454" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B455" s="2">
         <v>1.7083333333333336E-2</v>
@@ -9841,12 +9837,12 @@
       </c>
       <c r="D455" s="4"/>
       <c r="G455" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B456" s="2">
         <v>1.7361111111111112E-2</v>
@@ -9855,21 +9851,21 @@
         <v>1.7858796296296296E-2</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G456" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B457" s="2">
         <v>1.7858796296296296E-2</v>
@@ -9879,12 +9875,12 @@
       </c>
       <c r="D457" s="4"/>
       <c r="G457" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B458" s="2">
         <v>2.148148148148148E-2</v>
@@ -9894,12 +9890,12 @@
       </c>
       <c r="D458" s="4"/>
       <c r="G458" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B459" s="2">
         <v>2.344907407407407E-2</v>
@@ -9909,12 +9905,12 @@
       </c>
       <c r="D459" s="4"/>
       <c r="G459" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B460" s="2">
         <v>2.6759259259259257E-2</v>
@@ -9924,12 +9920,12 @@
       </c>
       <c r="D460" s="4"/>
       <c r="G460" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B461" s="2">
         <v>2.8923611111111108E-2</v>
@@ -9939,12 +9935,12 @@
       </c>
       <c r="D461" s="4"/>
       <c r="G461" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B462" s="2">
         <v>2.9108796296296296E-2</v>
@@ -9954,12 +9950,12 @@
       </c>
       <c r="D462" s="4"/>
       <c r="G462" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B463" s="2">
         <v>2.9861111111111113E-2</v>
@@ -9969,12 +9965,12 @@
       </c>
       <c r="D463" s="4"/>
       <c r="G463" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B464" s="2">
         <v>1.5046296296296297E-4</v>
@@ -9984,12 +9980,12 @@
       </c>
       <c r="D464" s="4"/>
       <c r="G464" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B465" s="2">
         <v>6.6898148148148142E-3</v>
@@ -9999,12 +9995,12 @@
       </c>
       <c r="D465" s="4"/>
       <c r="G465" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B466" s="2">
         <v>1.074074074074074E-2</v>
@@ -10014,12 +10010,12 @@
       </c>
       <c r="D466" s="4"/>
       <c r="G466" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B467" s="2">
         <v>1.5462962962962963E-2</v>
@@ -10029,12 +10025,12 @@
       </c>
       <c r="D467" s="4"/>
       <c r="G467" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B468" s="2">
         <v>2.0462962962962964E-2</v>
@@ -10044,12 +10040,12 @@
       </c>
       <c r="D468" s="4"/>
       <c r="G468" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B469" s="2">
         <v>2.4444444444444446E-2</v>
@@ -10059,12 +10055,12 @@
       </c>
       <c r="D469" s="4"/>
       <c r="G469" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B470" s="2">
         <v>2.7071759259259257E-2</v>
@@ -10074,12 +10070,12 @@
       </c>
       <c r="D470" s="4"/>
       <c r="G470" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B471" s="2">
         <v>3.0648148148148147E-2</v>
@@ -10089,7 +10085,7 @@
       </c>
       <c r="D471" s="4"/>
       <c r="G471" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
